--- a/roaster/output/output_template.xlsx
+++ b/roaster/output/output_template.xlsx
@@ -574,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -804,6 +804,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -814,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -2183,13 +2189,17 @@
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1" s="71">
-      <c r="A25" s="63" t="n"/>
-      <c r="B25" s="106" t="inlineStr">
+      <c r="A25" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B25" s="108" t="inlineStr">
         <is>
           <t>Deruzzio</t>
         </is>
       </c>
-      <c r="C25" s="106" t="inlineStr">
+      <c r="C25" s="108" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
@@ -2197,28 +2207,32 @@
       <c r="D25" s="65" t="n"/>
       <c r="E25" s="66" t="n"/>
       <c r="F25" s="66" t="n"/>
-      <c r="G25" s="107" t="inlineStr">
+      <c r="G25" s="109" t="inlineStr">
         <is>
           <t>518-755-5513</t>
         </is>
       </c>
-      <c r="H25" s="108" t="inlineStr">
+      <c r="H25" s="110" t="inlineStr">
         <is>
           <t>General Foreman</t>
         </is>
       </c>
-      <c r="I25" s="65" t="n"/>
-      <c r="J25" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K25" s="108" t="inlineStr">
+      <c r="I25" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J25" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K25" s="110" t="inlineStr">
         <is>
           <t>PU-3936</t>
         </is>
       </c>
-      <c r="L25" s="109" t="inlineStr">
+      <c r="L25" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -2236,13 +2250,17 @@
       <c r="W25" s="64" t="n"/>
     </row>
     <row r="26" ht="12.75" customHeight="1" s="71">
-      <c r="A26" s="63" t="n"/>
-      <c r="B26" s="106" t="inlineStr">
+      <c r="A26" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B26" s="108" t="inlineStr">
         <is>
           <t>Goins</t>
         </is>
       </c>
-      <c r="C26" s="106" t="inlineStr">
+      <c r="C26" s="108" t="inlineStr">
         <is>
           <t>Issac</t>
         </is>
@@ -2250,30 +2268,34 @@
       <c r="D26" s="65" t="n"/>
       <c r="E26" s="66" t="n"/>
       <c r="F26" s="66" t="n"/>
-      <c r="G26" s="107" t="inlineStr">
+      <c r="G26" s="109" t="inlineStr">
         <is>
           <t>423-551-2088</t>
         </is>
       </c>
-      <c r="H26" s="108" t="inlineStr">
+      <c r="H26" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I26" s="65" t="n"/>
-      <c r="J26" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K26" s="108" t="inlineStr">
+      <c r="I26" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J26" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K26" s="110" t="inlineStr">
         <is>
           <t>PU-5135</t>
         </is>
       </c>
-      <c r="L26" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L26" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M26" s="65" t="n"/>
@@ -2289,13 +2311,17 @@
       <c r="W26" s="64" t="n"/>
     </row>
     <row r="27" ht="12.75" customHeight="1" s="71">
-      <c r="A27" s="63" t="n"/>
-      <c r="B27" s="106" t="inlineStr">
+      <c r="A27" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B27" s="108" t="inlineStr">
         <is>
           <t>Ward</t>
         </is>
       </c>
-      <c r="C27" s="106" t="inlineStr">
+      <c r="C27" s="108" t="inlineStr">
         <is>
           <t>Spencer</t>
         </is>
@@ -2303,30 +2329,34 @@
       <c r="D27" s="65" t="n"/>
       <c r="E27" s="66" t="n"/>
       <c r="F27" s="66" t="n"/>
-      <c r="G27" s="107" t="inlineStr">
+      <c r="G27" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H27" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I27" s="65" t="n"/>
-      <c r="J27" s="108" t="inlineStr">
+      <c r="H27" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I27" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J27" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K27" s="108" t="inlineStr">
+      <c r="K27" s="110" t="inlineStr">
         <is>
           <t>BT-9888</t>
         </is>
       </c>
-      <c r="L27" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L27" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M27" s="65" t="n"/>
@@ -2342,13 +2372,17 @@
       <c r="W27" s="64" t="n"/>
     </row>
     <row r="28" ht="12.75" customHeight="1" s="71">
-      <c r="A28" s="63" t="n"/>
-      <c r="B28" s="106" t="inlineStr">
+      <c r="A28" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B28" s="108" t="inlineStr">
         <is>
           <t>Butler</t>
         </is>
       </c>
-      <c r="C28" s="106" t="inlineStr">
+      <c r="C28" s="108" t="inlineStr">
         <is>
           <t>Patrick</t>
         </is>
@@ -2356,30 +2390,34 @@
       <c r="D28" s="65" t="n"/>
       <c r="E28" s="66" t="n"/>
       <c r="F28" s="66" t="n"/>
-      <c r="G28" s="107" t="inlineStr">
+      <c r="G28" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H28" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I28" s="65" t="n"/>
-      <c r="J28" s="108" t="inlineStr">
+      <c r="H28" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I28" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J28" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K28" s="108" t="inlineStr">
+      <c r="K28" s="110" t="inlineStr">
         <is>
           <t>BT-9887</t>
         </is>
       </c>
-      <c r="L28" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L28" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M28" s="65" t="n"/>
@@ -2395,13 +2433,17 @@
       <c r="W28" s="64" t="n"/>
     </row>
     <row r="29" ht="12.75" customHeight="1" s="71">
-      <c r="A29" s="63" t="n"/>
-      <c r="B29" s="106" t="inlineStr">
+      <c r="A29" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B29" s="108" t="inlineStr">
         <is>
           <t>Sanders</t>
         </is>
       </c>
-      <c r="C29" s="106" t="inlineStr">
+      <c r="C29" s="108" t="inlineStr">
         <is>
           <t>David</t>
         </is>
@@ -2409,30 +2451,34 @@
       <c r="D29" s="65" t="n"/>
       <c r="E29" s="66" t="n"/>
       <c r="F29" s="66" t="n"/>
-      <c r="G29" s="107" t="inlineStr">
+      <c r="G29" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H29" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I29" s="65" t="n"/>
-      <c r="J29" s="108" t="inlineStr">
+      <c r="H29" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I29" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J29" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K29" s="108" t="inlineStr">
+      <c r="K29" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L29" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L29" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M29" s="65" t="n"/>
@@ -2448,13 +2494,17 @@
       <c r="W29" s="64" t="n"/>
     </row>
     <row r="30" ht="12.75" customHeight="1" s="71">
-      <c r="A30" s="63" t="n"/>
-      <c r="B30" s="106" t="inlineStr">
+      <c r="A30" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B30" s="108" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="C30" s="106" t="inlineStr">
+      <c r="C30" s="108" t="inlineStr">
         <is>
           <t>Jacob</t>
         </is>
@@ -2462,30 +2512,34 @@
       <c r="D30" s="65" t="n"/>
       <c r="E30" s="66" t="n"/>
       <c r="F30" s="66" t="n"/>
-      <c r="G30" s="107" t="inlineStr">
+      <c r="G30" s="109" t="inlineStr">
         <is>
           <t>423-903-5094</t>
         </is>
       </c>
-      <c r="H30" s="108" t="inlineStr">
+      <c r="H30" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I30" s="65" t="n"/>
-      <c r="J30" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K30" s="108" t="inlineStr">
+      <c r="I30" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J30" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K30" s="110" t="inlineStr">
         <is>
           <t>PU-2174</t>
         </is>
       </c>
-      <c r="L30" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L30" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M30" s="65" t="n"/>
@@ -2501,13 +2555,17 @@
       <c r="W30" s="64" t="n"/>
     </row>
     <row r="31" ht="12.75" customHeight="1" s="71">
-      <c r="A31" s="63" t="n"/>
-      <c r="B31" s="106" t="inlineStr">
+      <c r="A31" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B31" s="108" t="inlineStr">
         <is>
           <t>Flynt</t>
         </is>
       </c>
-      <c r="C31" s="106" t="inlineStr">
+      <c r="C31" s="108" t="inlineStr">
         <is>
           <t>Zachary</t>
         </is>
@@ -2515,30 +2573,34 @@
       <c r="D31" s="65" t="n"/>
       <c r="E31" s="66" t="n"/>
       <c r="F31" s="66" t="n"/>
-      <c r="G31" s="107" t="inlineStr">
+      <c r="G31" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H31" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I31" s="65" t="n"/>
-      <c r="J31" s="108" t="inlineStr">
+      <c r="H31" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I31" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J31" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K31" s="108" t="inlineStr">
+      <c r="K31" s="110" t="inlineStr">
         <is>
           <t>BT-9414</t>
         </is>
       </c>
-      <c r="L31" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L31" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M31" s="65" t="n"/>
@@ -2554,13 +2616,17 @@
       <c r="W31" s="64" t="n"/>
     </row>
     <row r="32" ht="12.75" customHeight="1" s="71">
-      <c r="A32" s="63" t="n"/>
-      <c r="B32" s="106" t="inlineStr">
+      <c r="A32" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B32" s="108" t="inlineStr">
         <is>
           <t>Kramer</t>
         </is>
       </c>
-      <c r="C32" s="106" t="inlineStr">
+      <c r="C32" s="108" t="inlineStr">
         <is>
           <t>Kip</t>
         </is>
@@ -2568,30 +2634,34 @@
       <c r="D32" s="65" t="n"/>
       <c r="E32" s="66" t="n"/>
       <c r="F32" s="66" t="n"/>
-      <c r="G32" s="107" t="inlineStr">
+      <c r="G32" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H32" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I32" s="65" t="n"/>
-      <c r="J32" s="108" t="inlineStr">
+      <c r="H32" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I32" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J32" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K32" s="108" t="inlineStr">
+      <c r="K32" s="110" t="inlineStr">
         <is>
           <t>DD-8673</t>
         </is>
       </c>
-      <c r="L32" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L32" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M32" s="65" t="n"/>
@@ -2607,13 +2677,17 @@
       <c r="W32" s="64" t="n"/>
     </row>
     <row r="33" ht="12.75" customHeight="1" s="71">
-      <c r="A33" s="63" t="n"/>
-      <c r="B33" s="106" t="inlineStr">
+      <c r="A33" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B33" s="108" t="inlineStr">
         <is>
           <t>Adams</t>
         </is>
       </c>
-      <c r="C33" s="106" t="inlineStr">
+      <c r="C33" s="108" t="inlineStr">
         <is>
           <t>Abby</t>
         </is>
@@ -2621,28 +2695,32 @@
       <c r="D33" s="65" t="n"/>
       <c r="E33" s="66" t="n"/>
       <c r="F33" s="66" t="n"/>
-      <c r="G33" s="107" t="inlineStr">
+      <c r="G33" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H33" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I33" s="65" t="n"/>
-      <c r="J33" s="108" t="inlineStr">
+      <c r="H33" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I33" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J33" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K33" s="108" t="inlineStr">
+      <c r="K33" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L33" s="109" t="inlineStr">
+      <c r="L33" s="111" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2660,13 +2738,17 @@
       <c r="W33" s="64" t="n"/>
     </row>
     <row r="34" ht="12.75" customHeight="1" s="71">
-      <c r="A34" s="63" t="n"/>
-      <c r="B34" s="106" t="inlineStr">
+      <c r="A34" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B34" s="108" t="inlineStr">
         <is>
           <t>Henson</t>
         </is>
       </c>
-      <c r="C34" s="106" t="inlineStr">
+      <c r="C34" s="108" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
@@ -2674,30 +2756,34 @@
       <c r="D34" s="65" t="n"/>
       <c r="E34" s="66" t="n"/>
       <c r="F34" s="66" t="n"/>
-      <c r="G34" s="107" t="inlineStr">
+      <c r="G34" s="109" t="inlineStr">
         <is>
           <t>270-293-1060</t>
         </is>
       </c>
-      <c r="H34" s="108" t="inlineStr">
+      <c r="H34" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I34" s="65" t="n"/>
-      <c r="J34" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K34" s="108" t="inlineStr">
+      <c r="I34" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J34" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K34" s="110" t="inlineStr">
         <is>
           <t>PU-4442</t>
         </is>
       </c>
-      <c r="L34" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L34" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M34" s="65" t="n"/>
@@ -2713,13 +2799,17 @@
       <c r="W34" s="64" t="n"/>
     </row>
     <row r="35" ht="12.75" customHeight="1" s="71">
-      <c r="A35" s="63" t="n"/>
-      <c r="B35" s="106" t="inlineStr">
+      <c r="A35" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B35" s="108" t="inlineStr">
         <is>
           <t>Howard</t>
         </is>
       </c>
-      <c r="C35" s="106" t="inlineStr">
+      <c r="C35" s="108" t="inlineStr">
         <is>
           <t>Jesse</t>
         </is>
@@ -2727,30 +2817,34 @@
       <c r="D35" s="65" t="n"/>
       <c r="E35" s="66" t="n"/>
       <c r="F35" s="66" t="n"/>
-      <c r="G35" s="107" t="inlineStr">
+      <c r="G35" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H35" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I35" s="65" t="n"/>
-      <c r="J35" s="108" t="inlineStr">
+      <c r="H35" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I35" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J35" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K35" s="108" t="inlineStr">
+      <c r="K35" s="110" t="inlineStr">
         <is>
           <t>BT-8989</t>
         </is>
       </c>
-      <c r="L35" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L35" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M35" s="65" t="n"/>
@@ -2766,13 +2860,17 @@
       <c r="W35" s="64" t="n"/>
     </row>
     <row r="36" ht="12.75" customHeight="1" s="71">
-      <c r="A36" s="63" t="n"/>
-      <c r="B36" s="106" t="inlineStr">
+      <c r="A36" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B36" s="108" t="inlineStr">
         <is>
           <t>Weinbel</t>
         </is>
       </c>
-      <c r="C36" s="106" t="inlineStr">
+      <c r="C36" s="108" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
@@ -2780,30 +2878,34 @@
       <c r="D36" s="65" t="n"/>
       <c r="E36" s="66" t="n"/>
       <c r="F36" s="66" t="n"/>
-      <c r="G36" s="107" t="inlineStr">
+      <c r="G36" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H36" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I36" s="65" t="n"/>
-      <c r="J36" s="108" t="inlineStr">
+      <c r="H36" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I36" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J36" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K36" s="108" t="inlineStr">
+      <c r="K36" s="110" t="inlineStr">
         <is>
           <t>DD-6388</t>
         </is>
       </c>
-      <c r="L36" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L36" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M36" s="65" t="n"/>
@@ -2819,13 +2921,17 @@
       <c r="W36" s="64" t="n"/>
     </row>
     <row r="37" ht="12.75" customHeight="1" s="71">
-      <c r="A37" s="63" t="n"/>
-      <c r="B37" s="106" t="inlineStr">
+      <c r="A37" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B37" s="108" t="inlineStr">
         <is>
           <t>Monroe</t>
         </is>
       </c>
-      <c r="C37" s="106" t="inlineStr">
+      <c r="C37" s="108" t="inlineStr">
         <is>
           <t>Kynan</t>
         </is>
@@ -2833,30 +2939,34 @@
       <c r="D37" s="65" t="n"/>
       <c r="E37" s="66" t="n"/>
       <c r="F37" s="66" t="n"/>
-      <c r="G37" s="107" t="inlineStr">
+      <c r="G37" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H37" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I37" s="65" t="n"/>
-      <c r="J37" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K37" s="108" t="inlineStr">
+      <c r="H37" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I37" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J37" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K37" s="110" t="inlineStr">
         <is>
           <t>BYM-2922</t>
         </is>
       </c>
-      <c r="L37" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L37" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M37" s="65" t="n"/>
@@ -2872,13 +2982,17 @@
       <c r="W37" s="64" t="n"/>
     </row>
     <row r="38" ht="12.75" customHeight="1" s="71">
-      <c r="A38" s="63" t="n"/>
-      <c r="B38" s="106" t="inlineStr">
+      <c r="A38" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B38" s="108" t="inlineStr">
         <is>
           <t>Jones</t>
         </is>
       </c>
-      <c r="C38" s="106" t="inlineStr">
+      <c r="C38" s="108" t="inlineStr">
         <is>
           <t>Adam</t>
         </is>
@@ -2886,30 +3000,34 @@
       <c r="D38" s="65" t="n"/>
       <c r="E38" s="66" t="n"/>
       <c r="F38" s="66" t="n"/>
-      <c r="G38" s="107" t="inlineStr">
+      <c r="G38" s="109" t="inlineStr">
         <is>
           <t>423-356-3088</t>
         </is>
       </c>
-      <c r="H38" s="108" t="inlineStr">
+      <c r="H38" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I38" s="65" t="n"/>
-      <c r="J38" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K38" s="108" t="inlineStr">
+      <c r="I38" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J38" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K38" s="110" t="inlineStr">
         <is>
           <t>PU-5803</t>
         </is>
       </c>
-      <c r="L38" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L38" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M38" s="65" t="n"/>
@@ -2925,13 +3043,17 @@
       <c r="W38" s="64" t="n"/>
     </row>
     <row r="39" ht="12.75" customHeight="1" s="71">
-      <c r="A39" s="63" t="n"/>
-      <c r="B39" s="106" t="inlineStr">
+      <c r="A39" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B39" s="108" t="inlineStr">
         <is>
           <t>Tate</t>
         </is>
       </c>
-      <c r="C39" s="106" t="inlineStr">
+      <c r="C39" s="108" t="inlineStr">
         <is>
           <t>Casey</t>
         </is>
@@ -2939,30 +3061,34 @@
       <c r="D39" s="65" t="n"/>
       <c r="E39" s="66" t="n"/>
       <c r="F39" s="66" t="n"/>
-      <c r="G39" s="107" t="inlineStr">
+      <c r="G39" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H39" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I39" s="65" t="n"/>
-      <c r="J39" s="108" t="inlineStr">
+      <c r="H39" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I39" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J39" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K39" s="108" t="inlineStr">
+      <c r="K39" s="110" t="inlineStr">
         <is>
           <t>BT-8988</t>
         </is>
       </c>
-      <c r="L39" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L39" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M39" s="65" t="n"/>
@@ -2978,13 +3104,17 @@
       <c r="W39" s="64" t="n"/>
     </row>
     <row r="40" ht="12.75" customHeight="1" s="71">
-      <c r="A40" s="63" t="n"/>
-      <c r="B40" s="106" t="inlineStr">
+      <c r="A40" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B40" s="108" t="inlineStr">
         <is>
           <t>Robinson</t>
         </is>
       </c>
-      <c r="C40" s="106" t="inlineStr">
+      <c r="C40" s="108" t="inlineStr">
         <is>
           <t>Dallas</t>
         </is>
@@ -2992,30 +3122,34 @@
       <c r="D40" s="65" t="n"/>
       <c r="E40" s="66" t="n"/>
       <c r="F40" s="66" t="n"/>
-      <c r="G40" s="107" t="inlineStr">
+      <c r="G40" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H40" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I40" s="65" t="n"/>
-      <c r="J40" s="108" t="inlineStr">
+      <c r="H40" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I40" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J40" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K40" s="108" t="inlineStr">
+      <c r="K40" s="110" t="inlineStr">
         <is>
           <t>DD-5319</t>
         </is>
       </c>
-      <c r="L40" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L40" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M40" s="65" t="n"/>
@@ -3031,13 +3165,17 @@
       <c r="W40" s="64" t="n"/>
     </row>
     <row r="41" ht="12.75" customHeight="1" s="71">
-      <c r="A41" s="63" t="n"/>
-      <c r="B41" s="106" t="inlineStr">
+      <c r="A41" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B41" s="108" t="inlineStr">
         <is>
           <t>Holcombe</t>
         </is>
       </c>
-      <c r="C41" s="106" t="inlineStr">
+      <c r="C41" s="108" t="inlineStr">
         <is>
           <t>Devan</t>
         </is>
@@ -3045,30 +3183,34 @@
       <c r="D41" s="65" t="n"/>
       <c r="E41" s="66" t="n"/>
       <c r="F41" s="66" t="n"/>
-      <c r="G41" s="107" t="inlineStr">
+      <c r="G41" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H41" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I41" s="65" t="n"/>
-      <c r="J41" s="108" t="inlineStr">
+      <c r="H41" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I41" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J41" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K41" s="108" t="inlineStr">
+      <c r="K41" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L41" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L41" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M41" s="65" t="n"/>
@@ -3084,13 +3226,17 @@
       <c r="W41" s="64" t="n"/>
     </row>
     <row r="42" ht="12.75" customHeight="1" s="71">
-      <c r="A42" s="63" t="n"/>
-      <c r="B42" s="106" t="inlineStr">
+      <c r="A42" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B42" s="108" t="inlineStr">
         <is>
           <t>Vogelmeier</t>
         </is>
       </c>
-      <c r="C42" s="106" t="inlineStr">
+      <c r="C42" s="108" t="inlineStr">
         <is>
           <t>Adam</t>
         </is>
@@ -3098,30 +3244,34 @@
       <c r="D42" s="65" t="n"/>
       <c r="E42" s="66" t="n"/>
       <c r="F42" s="66" t="n"/>
-      <c r="G42" s="107" t="inlineStr">
+      <c r="G42" s="109" t="inlineStr">
         <is>
           <t>423-268-6362</t>
         </is>
       </c>
-      <c r="H42" s="108" t="inlineStr">
+      <c r="H42" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I42" s="65" t="n"/>
-      <c r="J42" s="108" t="inlineStr">
+      <c r="I42" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J42" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K42" s="108" t="inlineStr">
+      <c r="K42" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L42" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L42" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M42" s="65" t="n"/>
@@ -3137,13 +3287,17 @@
       <c r="W42" s="64" t="n"/>
     </row>
     <row r="43" ht="12.75" customHeight="1" s="71">
-      <c r="A43" s="65" t="n"/>
-      <c r="B43" s="106" t="inlineStr">
+      <c r="A43" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B43" s="108" t="inlineStr">
         <is>
           <t>Cone</t>
         </is>
       </c>
-      <c r="C43" s="106" t="inlineStr">
+      <c r="C43" s="108" t="inlineStr">
         <is>
           <t>Jeremy</t>
         </is>
@@ -3151,30 +3305,34 @@
       <c r="D43" s="65" t="n"/>
       <c r="E43" s="66" t="n"/>
       <c r="F43" s="66" t="n"/>
-      <c r="G43" s="107" t="inlineStr">
+      <c r="G43" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H43" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I43" s="65" t="n"/>
-      <c r="J43" s="108" t="inlineStr">
+      <c r="H43" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I43" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J43" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K43" s="108" t="inlineStr">
-        <is>
-          <t>BT-1184 SQUIRT</t>
-        </is>
-      </c>
-      <c r="L43" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="K43" s="110" t="inlineStr">
+        <is>
+          <t>BT-1184</t>
+        </is>
+      </c>
+      <c r="L43" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M43" s="65" t="n"/>
@@ -3190,13 +3348,17 @@
       <c r="W43" s="64" t="n"/>
     </row>
     <row r="44" ht="12.75" customHeight="1" s="71">
-      <c r="A44" s="65" t="n"/>
-      <c r="B44" s="106" t="inlineStr">
+      <c r="A44" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B44" s="108" t="inlineStr">
         <is>
           <t>Bone</t>
         </is>
       </c>
-      <c r="C44" s="106" t="inlineStr">
+      <c r="C44" s="108" t="inlineStr">
         <is>
           <t>Austin</t>
         </is>
@@ -3204,30 +3366,34 @@
       <c r="D44" s="65" t="n"/>
       <c r="E44" s="66" t="n"/>
       <c r="F44" s="66" t="n"/>
-      <c r="G44" s="107" t="inlineStr">
+      <c r="G44" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H44" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I44" s="65" t="n"/>
-      <c r="J44" s="108" t="inlineStr">
+      <c r="H44" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I44" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J44" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K44" s="108" t="inlineStr">
+      <c r="K44" s="110" t="inlineStr">
         <is>
           <t>BT-8403</t>
         </is>
       </c>
-      <c r="L44" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L44" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M44" s="65" t="n"/>
@@ -3243,13 +3409,17 @@
       <c r="W44" s="64" t="n"/>
     </row>
     <row r="45" ht="12.75" customHeight="1" s="71">
-      <c r="A45" s="65" t="n"/>
-      <c r="B45" s="106" t="inlineStr">
+      <c r="A45" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B45" s="108" t="inlineStr">
         <is>
           <t>Mcdowell</t>
         </is>
       </c>
-      <c r="C45" s="106" t="inlineStr">
+      <c r="C45" s="108" t="inlineStr">
         <is>
           <t>Cade</t>
         </is>
@@ -3257,30 +3427,34 @@
       <c r="D45" s="65" t="n"/>
       <c r="E45" s="66" t="n"/>
       <c r="F45" s="66" t="n"/>
-      <c r="G45" s="107" t="inlineStr">
+      <c r="G45" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H45" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I45" s="65" t="n"/>
-      <c r="J45" s="108" t="inlineStr">
+      <c r="H45" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I45" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J45" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K45" s="108" t="inlineStr">
+      <c r="K45" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L45" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L45" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M45" s="65" t="n"/>
@@ -3296,13 +3470,17 @@
       <c r="W45" s="64" t="n"/>
     </row>
     <row r="46" ht="12.75" customHeight="1" s="71">
-      <c r="A46" s="65" t="n"/>
-      <c r="B46" s="106" t="inlineStr">
+      <c r="A46" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B46" s="108" t="inlineStr">
         <is>
           <t>Strickland</t>
         </is>
       </c>
-      <c r="C46" s="106" t="inlineStr">
+      <c r="C46" s="108" t="inlineStr">
         <is>
           <t>Tyler</t>
         </is>
@@ -3310,30 +3488,34 @@
       <c r="D46" s="65" t="n"/>
       <c r="E46" s="66" t="n"/>
       <c r="F46" s="66" t="n"/>
-      <c r="G46" s="107" t="inlineStr">
+      <c r="G46" s="109" t="inlineStr">
         <is>
           <t>865-603-4338</t>
         </is>
       </c>
-      <c r="H46" s="108" t="inlineStr">
+      <c r="H46" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I46" s="65" t="n"/>
-      <c r="J46" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K46" s="108" t="inlineStr">
+      <c r="I46" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J46" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K46" s="110" t="inlineStr">
         <is>
           <t>PU-4585</t>
         </is>
       </c>
-      <c r="L46" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L46" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M46" s="65" t="n"/>
@@ -3349,13 +3531,17 @@
       <c r="W46" s="64" t="n"/>
     </row>
     <row r="47" ht="12.75" customHeight="1" s="71">
-      <c r="A47" s="65" t="n"/>
-      <c r="B47" s="106" t="inlineStr">
+      <c r="A47" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B47" s="108" t="inlineStr">
         <is>
           <t>Brock</t>
         </is>
       </c>
-      <c r="C47" s="106" t="inlineStr">
+      <c r="C47" s="108" t="inlineStr">
         <is>
           <t>Jerry</t>
         </is>
@@ -3363,30 +3549,34 @@
       <c r="D47" s="65" t="n"/>
       <c r="E47" s="66" t="n"/>
       <c r="F47" s="66" t="n"/>
-      <c r="G47" s="107" t="inlineStr">
+      <c r="G47" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H47" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I47" s="65" t="n"/>
-      <c r="J47" s="108" t="inlineStr">
+      <c r="H47" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I47" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J47" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K47" s="108" t="inlineStr">
+      <c r="K47" s="110" t="inlineStr">
         <is>
           <t>BT-7917</t>
         </is>
       </c>
-      <c r="L47" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L47" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M47" s="65" t="n"/>
@@ -3402,13 +3592,17 @@
       <c r="W47" s="64" t="n"/>
     </row>
     <row r="48" ht="12.75" customHeight="1" s="71">
-      <c r="A48" s="65" t="n"/>
-      <c r="B48" s="106" t="inlineStr">
+      <c r="A48" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B48" s="108" t="inlineStr">
         <is>
           <t>Bland</t>
         </is>
       </c>
-      <c r="C48" s="106" t="inlineStr">
+      <c r="C48" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -3416,30 +3610,34 @@
       <c r="D48" s="65" t="n"/>
       <c r="E48" s="66" t="n"/>
       <c r="F48" s="66" t="n"/>
-      <c r="G48" s="107" t="inlineStr">
+      <c r="G48" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H48" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I48" s="65" t="n"/>
-      <c r="J48" s="108" t="inlineStr">
+      <c r="H48" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I48" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J48" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K48" s="108" t="inlineStr">
+      <c r="K48" s="110" t="inlineStr">
         <is>
           <t>DD-5637</t>
         </is>
       </c>
-      <c r="L48" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L48" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M48" s="65" t="n"/>
@@ -3455,13 +3653,17 @@
       <c r="W48" s="64" t="n"/>
     </row>
     <row r="49" ht="12.75" customHeight="1" s="71">
-      <c r="A49" s="65" t="n"/>
-      <c r="B49" s="106" t="inlineStr">
+      <c r="A49" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B49" s="108" t="inlineStr">
         <is>
           <t>Symon</t>
         </is>
       </c>
-      <c r="C49" s="106" t="inlineStr">
+      <c r="C49" s="108" t="inlineStr">
         <is>
           <t>Joseph</t>
         </is>
@@ -3469,30 +3671,34 @@
       <c r="D49" s="65" t="n"/>
       <c r="E49" s="66" t="n"/>
       <c r="F49" s="66" t="n"/>
-      <c r="G49" s="107" t="inlineStr">
+      <c r="G49" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H49" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I49" s="65" t="n"/>
-      <c r="J49" s="108" t="inlineStr">
+      <c r="H49" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I49" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J49" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K49" s="108" t="inlineStr">
+      <c r="K49" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L49" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L49" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M49" s="65" t="n"/>
@@ -3508,13 +3714,17 @@
       <c r="W49" s="64" t="n"/>
     </row>
     <row r="50" ht="12.75" customHeight="1" s="71">
-      <c r="A50" s="65" t="n"/>
-      <c r="B50" s="106" t="inlineStr">
+      <c r="A50" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B50" s="108" t="inlineStr">
         <is>
           <t>Goins</t>
         </is>
       </c>
-      <c r="C50" s="106" t="inlineStr">
+      <c r="C50" s="108" t="inlineStr">
         <is>
           <t>Jesse</t>
         </is>
@@ -3522,30 +3732,34 @@
       <c r="D50" s="65" t="n"/>
       <c r="E50" s="66" t="n"/>
       <c r="F50" s="66" t="n"/>
-      <c r="G50" s="107" t="inlineStr">
+      <c r="G50" s="109" t="inlineStr">
         <is>
           <t>423-582-2545</t>
         </is>
       </c>
-      <c r="H50" s="108" t="inlineStr">
+      <c r="H50" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I50" s="65" t="n"/>
-      <c r="J50" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K50" s="108" t="inlineStr">
+      <c r="I50" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J50" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K50" s="110" t="inlineStr">
         <is>
           <t>PU-3098</t>
         </is>
       </c>
-      <c r="L50" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L50" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M50" s="65" t="n"/>
@@ -3561,13 +3775,17 @@
       <c r="W50" s="64" t="n"/>
     </row>
     <row r="51" ht="12.75" customHeight="1" s="71">
-      <c r="A51" s="65" t="n"/>
-      <c r="B51" s="106" t="inlineStr">
+      <c r="A51" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B51" s="108" t="inlineStr">
         <is>
           <t>Finley</t>
         </is>
       </c>
-      <c r="C51" s="106" t="inlineStr">
+      <c r="C51" s="108" t="inlineStr">
         <is>
           <t>Steven</t>
         </is>
@@ -3575,30 +3793,34 @@
       <c r="D51" s="65" t="n"/>
       <c r="E51" s="66" t="n"/>
       <c r="F51" s="66" t="n"/>
-      <c r="G51" s="107" t="inlineStr">
+      <c r="G51" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H51" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I51" s="65" t="n"/>
-      <c r="J51" s="108" t="inlineStr">
+      <c r="H51" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I51" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J51" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K51" s="108" t="inlineStr">
+      <c r="K51" s="110" t="inlineStr">
         <is>
           <t>BT-7663</t>
         </is>
       </c>
-      <c r="L51" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L51" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M51" s="65" t="n"/>
@@ -3614,13 +3836,17 @@
       <c r="W51" s="64" t="n"/>
     </row>
     <row r="52" ht="12.75" customHeight="1" s="71">
-      <c r="A52" s="65" t="n"/>
-      <c r="B52" s="106" t="inlineStr">
+      <c r="A52" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B52" s="108" t="inlineStr">
         <is>
           <t>Sweeney</t>
         </is>
       </c>
-      <c r="C52" s="106" t="inlineStr">
+      <c r="C52" s="108" t="inlineStr">
         <is>
           <t>Kason</t>
         </is>
@@ -3628,30 +3854,34 @@
       <c r="D52" s="65" t="n"/>
       <c r="E52" s="66" t="n"/>
       <c r="F52" s="66" t="n"/>
-      <c r="G52" s="107" t="inlineStr">
+      <c r="G52" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H52" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I52" s="65" t="n"/>
-      <c r="J52" s="108" t="inlineStr">
+      <c r="H52" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I52" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J52" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K52" s="108" t="inlineStr">
+      <c r="K52" s="110" t="inlineStr">
         <is>
           <t>BT-6948</t>
         </is>
       </c>
-      <c r="L52" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L52" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M52" s="65" t="n"/>
@@ -3667,13 +3897,17 @@
       <c r="W52" s="64" t="n"/>
     </row>
     <row r="53" ht="12.75" customHeight="1" s="71">
-      <c r="A53" s="65" t="n"/>
-      <c r="B53" s="106" t="inlineStr">
+      <c r="A53" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B53" s="108" t="inlineStr">
         <is>
           <t>Provost</t>
         </is>
       </c>
-      <c r="C53" s="106" t="inlineStr">
+      <c r="C53" s="108" t="inlineStr">
         <is>
           <t>Sean</t>
         </is>
@@ -3681,30 +3915,34 @@
       <c r="D53" s="65" t="n"/>
       <c r="E53" s="66" t="n"/>
       <c r="F53" s="66" t="n"/>
-      <c r="G53" s="107" t="inlineStr">
+      <c r="G53" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H53" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I53" s="65" t="n"/>
-      <c r="J53" s="108" t="inlineStr">
+      <c r="H53" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I53" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J53" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K53" s="108" t="inlineStr">
+      <c r="K53" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L53" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L53" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M53" s="65" t="n"/>
@@ -3720,13 +3958,17 @@
       <c r="W53" s="64" t="n"/>
     </row>
     <row r="54" ht="12.75" customHeight="1" s="71">
-      <c r="A54" s="65" t="n"/>
-      <c r="B54" s="106" t="inlineStr">
+      <c r="A54" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B54" s="108" t="inlineStr">
         <is>
           <t>Happney</t>
         </is>
       </c>
-      <c r="C54" s="106" t="inlineStr">
+      <c r="C54" s="108" t="inlineStr">
         <is>
           <t>Wayne</t>
         </is>
@@ -3734,28 +3976,34 @@
       <c r="D54" s="65" t="n"/>
       <c r="E54" s="66" t="n"/>
       <c r="F54" s="66" t="n"/>
-      <c r="G54" s="107" t="inlineStr">
+      <c r="G54" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H54" s="108" t="inlineStr">
+      <c r="H54" s="110" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="I54" s="65" t="n"/>
-      <c r="J54" s="108" t="inlineStr">
-        <is>
-          <t>Mechanic Truck</t>
-        </is>
-      </c>
-      <c r="K54" s="108" t="n">
-        <v>3304</v>
-      </c>
-      <c r="L54" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="I54" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J54" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K54" s="110" t="inlineStr">
+        <is>
+          <t>ST-3304</t>
+        </is>
+      </c>
+      <c r="L54" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M54" s="65" t="n"/>
@@ -3771,13 +4019,17 @@
       <c r="W54" s="64" t="n"/>
     </row>
     <row r="55" ht="12.75" customHeight="1" s="71">
-      <c r="A55" s="65" t="n"/>
-      <c r="B55" s="106" t="inlineStr">
+      <c r="A55" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B55" s="108" t="inlineStr">
         <is>
           <t>Foutch</t>
         </is>
       </c>
-      <c r="C55" s="106" t="inlineStr">
+      <c r="C55" s="108" t="inlineStr">
         <is>
           <t>Bailey</t>
         </is>
@@ -3785,30 +4037,34 @@
       <c r="D55" s="65" t="n"/>
       <c r="E55" s="66" t="n"/>
       <c r="F55" s="66" t="n"/>
-      <c r="G55" s="107" t="inlineStr">
+      <c r="G55" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H55" s="108" t="inlineStr">
+      <c r="H55" s="110" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="I55" s="65" t="n"/>
-      <c r="J55" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K55" s="108" t="inlineStr">
+      <c r="I55" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J55" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K55" s="110" t="inlineStr">
         <is>
           <t>PU-3347</t>
         </is>
       </c>
-      <c r="L55" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L55" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M55" s="65" t="n"/>
@@ -3824,13 +4080,17 @@
       <c r="W55" s="64" t="n"/>
     </row>
     <row r="56" ht="12.75" customHeight="1" s="71">
-      <c r="A56" s="65" t="n"/>
-      <c r="B56" s="106" t="inlineStr">
+      <c r="A56" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B56" s="108" t="inlineStr">
         <is>
           <t>White</t>
         </is>
       </c>
-      <c r="C56" s="106" t="inlineStr">
+      <c r="C56" s="108" t="inlineStr">
         <is>
           <t>Paul</t>
         </is>
@@ -3838,30 +4098,34 @@
       <c r="D56" s="65" t="n"/>
       <c r="E56" s="66" t="n"/>
       <c r="F56" s="66" t="n"/>
-      <c r="G56" s="107" t="inlineStr">
+      <c r="G56" s="109" t="inlineStr">
         <is>
           <t>423-718-3375</t>
         </is>
       </c>
-      <c r="H56" s="108" t="inlineStr">
+      <c r="H56" s="110" t="inlineStr">
         <is>
           <t>General Foreman</t>
         </is>
       </c>
-      <c r="I56" s="65" t="n"/>
-      <c r="J56" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K56" s="108" t="inlineStr">
+      <c r="I56" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J56" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K56" s="110" t="inlineStr">
         <is>
           <t>PU-8895</t>
         </is>
       </c>
-      <c r="L56" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L56" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M56" s="65" t="n"/>
@@ -3877,13 +4141,17 @@
       <c r="W56" s="64" t="n"/>
     </row>
     <row r="57" ht="12.75" customHeight="1" s="71">
-      <c r="A57" s="65" t="n"/>
-      <c r="B57" s="106" t="inlineStr">
+      <c r="A57" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B57" s="108" t="inlineStr">
         <is>
           <t>Stubblefield</t>
         </is>
       </c>
-      <c r="C57" s="106" t="inlineStr">
+      <c r="C57" s="108" t="inlineStr">
         <is>
           <t>Blake</t>
         </is>
@@ -3891,30 +4159,34 @@
       <c r="D57" s="65" t="n"/>
       <c r="E57" s="66" t="n"/>
       <c r="F57" s="66" t="n"/>
-      <c r="G57" s="107" t="inlineStr">
+      <c r="G57" s="109" t="inlineStr">
         <is>
           <t>706-455-1589</t>
         </is>
       </c>
-      <c r="H57" s="108" t="inlineStr">
+      <c r="H57" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I57" s="65" t="n"/>
-      <c r="J57" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K57" s="108" t="inlineStr">
+      <c r="I57" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J57" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K57" s="110" t="inlineStr">
         <is>
           <t>PU-9355</t>
         </is>
       </c>
-      <c r="L57" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L57" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M57" s="65" t="n"/>
@@ -3930,13 +4202,17 @@
       <c r="W57" s="64" t="n"/>
     </row>
     <row r="58" ht="12.75" customHeight="1" s="71">
-      <c r="A58" s="65" t="n"/>
-      <c r="B58" s="106" t="inlineStr">
+      <c r="A58" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B58" s="108" t="inlineStr">
         <is>
           <t>Lobello</t>
         </is>
       </c>
-      <c r="C58" s="106" t="inlineStr">
+      <c r="C58" s="108" t="inlineStr">
         <is>
           <t>Michael</t>
         </is>
@@ -3944,30 +4220,34 @@
       <c r="D58" s="65" t="n"/>
       <c r="E58" s="66" t="n"/>
       <c r="F58" s="66" t="n"/>
-      <c r="G58" s="107" t="inlineStr">
+      <c r="G58" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H58" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I58" s="65" t="n"/>
-      <c r="J58" s="108" t="inlineStr">
+      <c r="H58" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I58" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J58" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K58" s="108" t="inlineStr">
+      <c r="K58" s="110" t="inlineStr">
         <is>
           <t>BT-6082</t>
         </is>
       </c>
-      <c r="L58" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L58" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M58" s="65" t="n"/>
@@ -3983,13 +4263,17 @@
       <c r="W58" s="64" t="n"/>
     </row>
     <row r="59" ht="12.75" customHeight="1" s="71">
-      <c r="A59" s="65" t="n"/>
-      <c r="B59" s="106" t="inlineStr">
+      <c r="A59" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B59" s="108" t="inlineStr">
         <is>
           <t>Morgan</t>
         </is>
       </c>
-      <c r="C59" s="106" t="inlineStr">
+      <c r="C59" s="108" t="inlineStr">
         <is>
           <t>Donald</t>
         </is>
@@ -3997,30 +4281,34 @@
       <c r="D59" s="65" t="n"/>
       <c r="E59" s="66" t="n"/>
       <c r="F59" s="66" t="n"/>
-      <c r="G59" s="107" t="inlineStr">
+      <c r="G59" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H59" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I59" s="65" t="n"/>
-      <c r="J59" s="108" t="inlineStr">
+      <c r="H59" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I59" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J59" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K59" s="108" t="inlineStr">
+      <c r="K59" s="110" t="inlineStr">
         <is>
           <t>DD-8957</t>
         </is>
       </c>
-      <c r="L59" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L59" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M59" s="65" t="n"/>
@@ -4036,13 +4324,17 @@
       <c r="W59" s="64" t="n"/>
     </row>
     <row r="60" ht="12.75" customHeight="1" s="71">
-      <c r="A60" s="65" t="n"/>
-      <c r="B60" s="106" t="inlineStr">
+      <c r="A60" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B60" s="108" t="inlineStr">
         <is>
           <t>Wilson</t>
         </is>
       </c>
-      <c r="C60" s="106" t="inlineStr">
+      <c r="C60" s="108" t="inlineStr">
         <is>
           <t>Jason</t>
         </is>
@@ -4050,30 +4342,34 @@
       <c r="D60" s="65" t="n"/>
       <c r="E60" s="66" t="n"/>
       <c r="F60" s="66" t="n"/>
-      <c r="G60" s="107" t="inlineStr">
+      <c r="G60" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H60" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I60" s="65" t="n"/>
-      <c r="J60" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K60" s="108" t="inlineStr">
-        <is>
-          <t>C025</t>
-        </is>
-      </c>
-      <c r="L60" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="H60" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I60" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J60" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K60" s="110" t="inlineStr">
+        <is>
+          <t>PT-CO25</t>
+        </is>
+      </c>
+      <c r="L60" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M60" s="65" t="n"/>
@@ -4089,13 +4385,17 @@
       <c r="W60" s="64" t="n"/>
     </row>
     <row r="61" ht="12.75" customHeight="1" s="71">
-      <c r="A61" s="65" t="n"/>
-      <c r="B61" s="106" t="inlineStr">
+      <c r="A61" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B61" s="108" t="inlineStr">
         <is>
           <t>Gray</t>
         </is>
       </c>
-      <c r="C61" s="106" t="inlineStr">
+      <c r="C61" s="108" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
@@ -4103,30 +4403,34 @@
       <c r="D61" s="65" t="n"/>
       <c r="E61" s="66" t="n"/>
       <c r="F61" s="66" t="n"/>
-      <c r="G61" s="107" t="inlineStr">
+      <c r="G61" s="109" t="inlineStr">
         <is>
           <t>706-633-3038</t>
         </is>
       </c>
-      <c r="H61" s="108" t="inlineStr">
+      <c r="H61" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I61" s="65" t="n"/>
-      <c r="J61" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K61" s="108" t="inlineStr">
+      <c r="I61" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J61" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K61" s="110" t="inlineStr">
         <is>
           <t>PU-8895</t>
         </is>
       </c>
-      <c r="L61" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L61" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M61" s="65" t="n"/>
@@ -4142,13 +4446,17 @@
       <c r="W61" s="64" t="n"/>
     </row>
     <row r="62" ht="12.75" customHeight="1" s="71">
-      <c r="A62" s="65" t="n"/>
-      <c r="B62" s="106" t="inlineStr">
+      <c r="A62" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B62" s="108" t="inlineStr">
         <is>
           <t>Ensley</t>
         </is>
       </c>
-      <c r="C62" s="106" t="inlineStr">
+      <c r="C62" s="108" t="inlineStr">
         <is>
           <t>Tyler</t>
         </is>
@@ -4156,30 +4464,34 @@
       <c r="D62" s="65" t="n"/>
       <c r="E62" s="66" t="n"/>
       <c r="F62" s="66" t="n"/>
-      <c r="G62" s="107" t="inlineStr">
+      <c r="G62" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H62" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I62" s="65" t="n"/>
-      <c r="J62" s="108" t="inlineStr">
+      <c r="H62" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I62" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J62" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K62" s="108" t="inlineStr">
+      <c r="K62" s="110" t="inlineStr">
         <is>
           <t>BT-5899</t>
         </is>
       </c>
-      <c r="L62" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L62" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M62" s="65" t="n"/>
@@ -4195,13 +4507,17 @@
       <c r="W62" s="64" t="n"/>
     </row>
     <row r="63" ht="12.75" customHeight="1" s="71">
-      <c r="A63" s="65" t="n"/>
-      <c r="B63" s="106" t="inlineStr">
+      <c r="A63" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B63" s="108" t="inlineStr">
         <is>
           <t>Cook</t>
         </is>
       </c>
-      <c r="C63" s="106" t="inlineStr">
+      <c r="C63" s="108" t="inlineStr">
         <is>
           <t>Matthew</t>
         </is>
@@ -4209,30 +4525,34 @@
       <c r="D63" s="65" t="n"/>
       <c r="E63" s="66" t="n"/>
       <c r="F63" s="66" t="n"/>
-      <c r="G63" s="107" t="inlineStr">
+      <c r="G63" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H63" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I63" s="65" t="n"/>
-      <c r="J63" s="108" t="inlineStr">
+      <c r="H63" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I63" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J63" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K63" s="108" t="inlineStr">
+      <c r="K63" s="110" t="inlineStr">
         <is>
           <t>DD-8670</t>
         </is>
       </c>
-      <c r="L63" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L63" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M63" s="65" t="n"/>
@@ -4248,13 +4568,17 @@
       <c r="W63" s="64" t="n"/>
     </row>
     <row r="64" ht="12.75" customHeight="1" s="71">
-      <c r="A64" s="65" t="n"/>
-      <c r="B64" s="106" t="inlineStr">
+      <c r="A64" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B64" s="108" t="inlineStr">
         <is>
           <t>Cahours</t>
         </is>
       </c>
-      <c r="C64" s="106" t="inlineStr">
+      <c r="C64" s="108" t="inlineStr">
         <is>
           <t>Noah</t>
         </is>
@@ -4262,30 +4586,34 @@
       <c r="D64" s="65" t="n"/>
       <c r="E64" s="66" t="n"/>
       <c r="F64" s="66" t="n"/>
-      <c r="G64" s="107" t="inlineStr">
+      <c r="G64" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H64" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I64" s="65" t="n"/>
-      <c r="J64" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K64" s="108" t="inlineStr">
+      <c r="H64" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I64" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J64" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K64" s="110" t="inlineStr">
         <is>
           <t>BYM-0009</t>
         </is>
       </c>
-      <c r="L64" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L64" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M64" s="65" t="n"/>
@@ -4301,13 +4629,17 @@
       <c r="W64" s="64" t="n"/>
     </row>
     <row r="65" ht="12.75" customHeight="1" s="71">
-      <c r="A65" s="65" t="n"/>
-      <c r="B65" s="106" t="inlineStr">
+      <c r="A65" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B65" s="108" t="inlineStr">
         <is>
           <t>Eastridge</t>
         </is>
       </c>
-      <c r="C65" s="106" t="inlineStr">
+      <c r="C65" s="108" t="inlineStr">
         <is>
           <t>Jay</t>
         </is>
@@ -4315,30 +4647,34 @@
       <c r="D65" s="65" t="n"/>
       <c r="E65" s="66" t="n"/>
       <c r="F65" s="66" t="n"/>
-      <c r="G65" s="107" t="inlineStr">
+      <c r="G65" s="109" t="inlineStr">
         <is>
           <t>270-234-6602</t>
         </is>
       </c>
-      <c r="H65" s="108" t="inlineStr">
+      <c r="H65" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I65" s="65" t="n"/>
-      <c r="J65" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K65" s="108" t="inlineStr">
+      <c r="I65" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J65" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K65" s="110" t="inlineStr">
         <is>
           <t>PU-1698</t>
         </is>
       </c>
-      <c r="L65" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L65" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M65" s="65" t="n"/>
@@ -4354,13 +4690,17 @@
       <c r="W65" s="64" t="n"/>
     </row>
     <row r="66" ht="12.75" customHeight="1" s="71">
-      <c r="A66" s="65" t="n"/>
-      <c r="B66" s="106" t="inlineStr">
+      <c r="A66" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B66" s="108" t="inlineStr">
         <is>
           <t>Morgan</t>
         </is>
       </c>
-      <c r="C66" s="106" t="inlineStr">
+      <c r="C66" s="108" t="inlineStr">
         <is>
           <t>Dustin</t>
         </is>
@@ -4368,30 +4708,34 @@
       <c r="D66" s="65" t="n"/>
       <c r="E66" s="66" t="n"/>
       <c r="F66" s="66" t="n"/>
-      <c r="G66" s="107" t="inlineStr">
+      <c r="G66" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H66" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I66" s="65" t="n"/>
-      <c r="J66" s="108" t="inlineStr">
+      <c r="H66" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I66" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J66" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K66" s="108" t="inlineStr">
+      <c r="K66" s="110" t="inlineStr">
         <is>
           <t>BT-5378</t>
         </is>
       </c>
-      <c r="L66" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L66" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M66" s="65" t="n"/>
@@ -4407,13 +4751,17 @@
       <c r="W66" s="64" t="n"/>
     </row>
     <row r="67" ht="12.75" customHeight="1" s="71">
-      <c r="A67" s="65" t="n"/>
-      <c r="B67" s="106" t="inlineStr">
+      <c r="A67" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B67" s="108" t="inlineStr">
         <is>
           <t>Conn</t>
         </is>
       </c>
-      <c r="C67" s="106" t="inlineStr">
+      <c r="C67" s="108" t="inlineStr">
         <is>
           <t>Jessey</t>
         </is>
@@ -4421,30 +4769,34 @@
       <c r="D67" s="65" t="n"/>
       <c r="E67" s="66" t="n"/>
       <c r="F67" s="66" t="n"/>
-      <c r="G67" s="107" t="inlineStr">
+      <c r="G67" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H67" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I67" s="65" t="n"/>
-      <c r="J67" s="108" t="inlineStr">
+      <c r="H67" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I67" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J67" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K67" s="108" t="inlineStr">
+      <c r="K67" s="110" t="inlineStr">
         <is>
           <t>DD-6230</t>
         </is>
       </c>
-      <c r="L67" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L67" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M67" s="65" t="n"/>
@@ -4460,13 +4812,17 @@
       <c r="W67" s="64" t="n"/>
     </row>
     <row r="68" ht="12.75" customHeight="1" s="71">
-      <c r="A68" s="65" t="n"/>
-      <c r="B68" s="106" t="inlineStr">
+      <c r="A68" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B68" s="108" t="inlineStr">
         <is>
           <t>Grimes</t>
         </is>
       </c>
-      <c r="C68" s="106" t="inlineStr">
+      <c r="C68" s="108" t="inlineStr">
         <is>
           <t>Dustin</t>
         </is>
@@ -4474,30 +4830,34 @@
       <c r="D68" s="65" t="n"/>
       <c r="E68" s="66" t="n"/>
       <c r="F68" s="66" t="n"/>
-      <c r="G68" s="107" t="inlineStr">
+      <c r="G68" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H68" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I68" s="65" t="n"/>
-      <c r="J68" s="108" t="inlineStr">
+      <c r="H68" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I68" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J68" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K68" s="108" t="inlineStr">
+      <c r="K68" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L68" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L68" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M68" s="65" t="n"/>
@@ -4513,13 +4873,17 @@
       <c r="W68" s="64" t="n"/>
     </row>
     <row r="69" ht="12.75" customHeight="1" s="71">
-      <c r="A69" s="65" t="n"/>
-      <c r="B69" s="106" t="inlineStr">
+      <c r="A69" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B69" s="108" t="inlineStr">
         <is>
           <t>Puckett sr</t>
         </is>
       </c>
-      <c r="C69" s="106" t="inlineStr">
+      <c r="C69" s="108" t="inlineStr">
         <is>
           <t>Matthew</t>
         </is>
@@ -4527,30 +4891,34 @@
       <c r="D69" s="65" t="n"/>
       <c r="E69" s="66" t="n"/>
       <c r="F69" s="66" t="n"/>
-      <c r="G69" s="107" t="inlineStr">
+      <c r="G69" s="109" t="inlineStr">
         <is>
           <t>502-500-9169</t>
         </is>
       </c>
-      <c r="H69" s="108" t="inlineStr">
+      <c r="H69" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I69" s="65" t="n"/>
-      <c r="J69" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K69" s="108" t="inlineStr">
+      <c r="I69" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J69" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K69" s="110" t="inlineStr">
         <is>
           <t>PU-3513</t>
         </is>
       </c>
-      <c r="L69" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L69" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M69" s="65" t="n"/>
@@ -4566,13 +4934,17 @@
       <c r="W69" s="64" t="n"/>
     </row>
     <row r="70" ht="12.75" customHeight="1" s="71">
-      <c r="A70" s="65" t="n"/>
-      <c r="B70" s="106" t="inlineStr">
+      <c r="A70" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B70" s="108" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
       </c>
-      <c r="C70" s="106" t="inlineStr">
+      <c r="C70" s="108" t="inlineStr">
         <is>
           <t>Devin</t>
         </is>
@@ -4580,30 +4952,34 @@
       <c r="D70" s="65" t="n"/>
       <c r="E70" s="66" t="n"/>
       <c r="F70" s="66" t="n"/>
-      <c r="G70" s="107" t="inlineStr">
+      <c r="G70" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H70" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I70" s="65" t="n"/>
-      <c r="J70" s="108" t="inlineStr">
+      <c r="H70" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I70" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J70" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K70" s="108" t="inlineStr">
+      <c r="K70" s="110" t="inlineStr">
         <is>
           <t>BT-3694</t>
         </is>
       </c>
-      <c r="L70" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L70" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M70" s="65" t="n"/>
@@ -4619,13 +4995,17 @@
       <c r="W70" s="64" t="n"/>
     </row>
     <row r="71" ht="12.75" customHeight="1" s="71">
-      <c r="A71" s="65" t="n"/>
-      <c r="B71" s="106" t="inlineStr">
+      <c r="A71" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B71" s="108" t="inlineStr">
         <is>
           <t>Skidmore</t>
         </is>
       </c>
-      <c r="C71" s="106" t="inlineStr">
+      <c r="C71" s="108" t="inlineStr">
         <is>
           <t>Derek</t>
         </is>
@@ -4633,30 +5013,34 @@
       <c r="D71" s="65" t="n"/>
       <c r="E71" s="66" t="n"/>
       <c r="F71" s="66" t="n"/>
-      <c r="G71" s="107" t="inlineStr">
+      <c r="G71" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H71" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I71" s="65" t="n"/>
-      <c r="J71" s="108" t="inlineStr">
+      <c r="H71" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I71" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J71" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K71" s="108" t="inlineStr">
+      <c r="K71" s="110" t="inlineStr">
         <is>
           <t>DD-3017</t>
         </is>
       </c>
-      <c r="L71" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L71" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M71" s="65" t="n"/>
@@ -4672,13 +5056,17 @@
       <c r="W71" s="64" t="n"/>
     </row>
     <row r="72" ht="12.75" customHeight="1" s="71">
-      <c r="A72" s="65" t="n"/>
-      <c r="B72" s="106" t="inlineStr">
+      <c r="A72" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B72" s="108" t="inlineStr">
         <is>
           <t>Puckett jr</t>
         </is>
       </c>
-      <c r="C72" s="106" t="inlineStr">
+      <c r="C72" s="108" t="inlineStr">
         <is>
           <t>Matthew</t>
         </is>
@@ -4686,30 +5074,34 @@
       <c r="D72" s="65" t="n"/>
       <c r="E72" s="66" t="n"/>
       <c r="F72" s="66" t="n"/>
-      <c r="G72" s="107" t="inlineStr">
+      <c r="G72" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H72" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I72" s="65" t="n"/>
-      <c r="J72" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K72" s="108" t="inlineStr">
+      <c r="H72" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I72" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J72" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K72" s="110" t="inlineStr">
         <is>
           <t>BO10</t>
         </is>
       </c>
-      <c r="L72" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L72" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M72" s="65" t="n"/>
@@ -4725,13 +5117,17 @@
       <c r="W72" s="64" t="n"/>
     </row>
     <row r="73" ht="12.75" customHeight="1" s="71">
-      <c r="A73" s="65" t="n"/>
-      <c r="B73" s="106" t="inlineStr">
+      <c r="A73" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B73" s="108" t="inlineStr">
         <is>
           <t>Cranfill</t>
         </is>
       </c>
-      <c r="C73" s="106" t="inlineStr">
+      <c r="C73" s="108" t="inlineStr">
         <is>
           <t>Hagen</t>
         </is>
@@ -4739,30 +5135,34 @@
       <c r="D73" s="65" t="n"/>
       <c r="E73" s="66" t="n"/>
       <c r="F73" s="66" t="n"/>
-      <c r="G73" s="107" t="inlineStr">
+      <c r="G73" s="109" t="inlineStr">
         <is>
           <t>423-883-2655</t>
         </is>
       </c>
-      <c r="H73" s="108" t="inlineStr">
+      <c r="H73" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I73" s="65" t="n"/>
-      <c r="J73" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K73" s="108" t="inlineStr">
+      <c r="I73" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J73" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K73" s="110" t="inlineStr">
         <is>
           <t>PU-3103</t>
         </is>
       </c>
-      <c r="L73" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L73" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M73" s="65" t="n"/>
@@ -4778,13 +5178,17 @@
       <c r="W73" s="64" t="n"/>
     </row>
     <row r="74" ht="12.75" customHeight="1" s="71">
-      <c r="A74" s="65" t="n"/>
-      <c r="B74" s="106" t="inlineStr">
+      <c r="A74" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B74" s="108" t="inlineStr">
         <is>
           <t>Bruce</t>
         </is>
       </c>
-      <c r="C74" s="106" t="inlineStr">
+      <c r="C74" s="108" t="inlineStr">
         <is>
           <t>Jordan</t>
         </is>
@@ -4792,30 +5196,34 @@
       <c r="D74" s="65" t="n"/>
       <c r="E74" s="66" t="n"/>
       <c r="F74" s="66" t="n"/>
-      <c r="G74" s="107" t="inlineStr">
+      <c r="G74" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H74" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I74" s="65" t="n"/>
-      <c r="J74" s="108" t="inlineStr">
+      <c r="H74" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I74" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J74" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K74" s="108" t="inlineStr">
+      <c r="K74" s="110" t="inlineStr">
         <is>
           <t>BT-3122</t>
         </is>
       </c>
-      <c r="L74" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L74" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M74" s="65" t="n"/>
@@ -4831,13 +5239,17 @@
       <c r="W74" s="64" t="n"/>
     </row>
     <row r="75" ht="12.75" customHeight="1" s="71">
-      <c r="A75" s="65" t="n"/>
-      <c r="B75" s="106" t="inlineStr">
+      <c r="A75" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B75" s="108" t="inlineStr">
         <is>
           <t>Tollett</t>
         </is>
       </c>
-      <c r="C75" s="106" t="inlineStr">
+      <c r="C75" s="108" t="inlineStr">
         <is>
           <t>Michael</t>
         </is>
@@ -4845,30 +5257,34 @@
       <c r="D75" s="65" t="n"/>
       <c r="E75" s="66" t="n"/>
       <c r="F75" s="66" t="n"/>
-      <c r="G75" s="107" t="inlineStr">
+      <c r="G75" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H75" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I75" s="65" t="n"/>
-      <c r="J75" s="108" t="inlineStr">
+      <c r="H75" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I75" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J75" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K75" s="108" t="inlineStr">
+      <c r="K75" s="110" t="inlineStr">
         <is>
           <t>BT-2567</t>
         </is>
       </c>
-      <c r="L75" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L75" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M75" s="65" t="n"/>
@@ -4884,13 +5300,17 @@
       <c r="W75" s="64" t="n"/>
     </row>
     <row r="76" ht="12.75" customHeight="1" s="71">
-      <c r="A76" s="65" t="n"/>
-      <c r="B76" s="106" t="inlineStr">
+      <c r="A76" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B76" s="108" t="inlineStr">
         <is>
           <t>Carter</t>
         </is>
       </c>
-      <c r="C76" s="106" t="inlineStr">
+      <c r="C76" s="108" t="inlineStr">
         <is>
           <t>David</t>
         </is>
@@ -4898,30 +5318,34 @@
       <c r="D76" s="65" t="n"/>
       <c r="E76" s="66" t="n"/>
       <c r="F76" s="66" t="n"/>
-      <c r="G76" s="107" t="inlineStr">
+      <c r="G76" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H76" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I76" s="65" t="n"/>
-      <c r="J76" s="108" t="inlineStr">
+      <c r="H76" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I76" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J76" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K76" s="108" t="inlineStr">
+      <c r="K76" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L76" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L76" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M76" s="65" t="n"/>
@@ -4937,13 +5361,17 @@
       <c r="W76" s="64" t="n"/>
     </row>
     <row r="77" ht="12.75" customHeight="1" s="71">
-      <c r="A77" s="65" t="n"/>
-      <c r="B77" s="106" t="inlineStr">
+      <c r="A77" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B77" s="108" t="inlineStr">
         <is>
           <t>Fleming</t>
         </is>
       </c>
-      <c r="C77" s="106" t="inlineStr">
+      <c r="C77" s="108" t="inlineStr">
         <is>
           <t>Nicholas</t>
         </is>
@@ -4951,28 +5379,34 @@
       <c r="D77" s="65" t="n"/>
       <c r="E77" s="66" t="n"/>
       <c r="F77" s="66" t="n"/>
-      <c r="G77" s="107" t="inlineStr">
+      <c r="G77" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H77" s="108" t="inlineStr">
+      <c r="H77" s="110" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="I77" s="65" t="n"/>
-      <c r="J77" s="108" t="inlineStr">
-        <is>
-          <t>Mechanic Truck</t>
-        </is>
-      </c>
-      <c r="K77" s="108" t="n">
-        <v>2055</v>
-      </c>
-      <c r="L77" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="I77" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J77" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K77" s="110" t="inlineStr">
+        <is>
+          <t>ST-2055</t>
+        </is>
+      </c>
+      <c r="L77" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M77" s="65" t="n"/>
@@ -4988,13 +5422,17 @@
       <c r="W77" s="64" t="n"/>
     </row>
     <row r="78" ht="12.75" customHeight="1" s="71">
-      <c r="A78" s="65" t="n"/>
-      <c r="B78" s="106" t="inlineStr">
+      <c r="A78" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B78" s="108" t="inlineStr">
         <is>
           <t>Dunn</t>
         </is>
       </c>
-      <c r="C78" s="106" t="inlineStr">
+      <c r="C78" s="108" t="inlineStr">
         <is>
           <t>Chayse</t>
         </is>
@@ -5002,30 +5440,34 @@
       <c r="D78" s="65" t="n"/>
       <c r="E78" s="66" t="n"/>
       <c r="F78" s="66" t="n"/>
-      <c r="G78" s="107" t="inlineStr">
+      <c r="G78" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H78" s="108" t="inlineStr">
+      <c r="H78" s="110" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="I78" s="65" t="n"/>
-      <c r="J78" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K78" s="108" t="inlineStr">
+      <c r="I78" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J78" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K78" s="110" t="inlineStr">
         <is>
           <t>PU-51'</t>
         </is>
       </c>
-      <c r="L78" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L78" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M78" s="65" t="n"/>
@@ -5041,13 +5483,17 @@
       <c r="W78" s="64" t="n"/>
     </row>
     <row r="79" ht="12.75" customHeight="1" s="71">
-      <c r="A79" s="65" t="n"/>
-      <c r="B79" s="106" t="inlineStr">
+      <c r="A79" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B79" s="108" t="inlineStr">
         <is>
           <t>Bird</t>
         </is>
       </c>
-      <c r="C79" s="106" t="inlineStr">
+      <c r="C79" s="108" t="inlineStr">
         <is>
           <t>Stephen</t>
         </is>
@@ -5055,30 +5501,34 @@
       <c r="D79" s="65" t="n"/>
       <c r="E79" s="66" t="n"/>
       <c r="F79" s="66" t="n"/>
-      <c r="G79" s="107" t="inlineStr">
+      <c r="G79" s="109" t="inlineStr">
         <is>
           <t>423-802-8019</t>
         </is>
       </c>
-      <c r="H79" s="108" t="inlineStr">
+      <c r="H79" s="110" t="inlineStr">
         <is>
           <t>General Foreman</t>
         </is>
       </c>
-      <c r="I79" s="65" t="n"/>
-      <c r="J79" s="108" t="inlineStr">
+      <c r="I79" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J79" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K79" s="108" t="inlineStr">
+      <c r="K79" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L79" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L79" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M79" s="65" t="n"/>
@@ -5094,13 +5544,17 @@
       <c r="W79" s="64" t="n"/>
     </row>
     <row r="80" ht="12.75" customHeight="1" s="71">
-      <c r="A80" s="65" t="n"/>
-      <c r="B80" s="106" t="inlineStr">
+      <c r="A80" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B80" s="108" t="inlineStr">
         <is>
           <t>Nunley</t>
         </is>
       </c>
-      <c r="C80" s="106" t="inlineStr">
+      <c r="C80" s="108" t="inlineStr">
         <is>
           <t>Andy</t>
         </is>
@@ -5108,30 +5562,34 @@
       <c r="D80" s="65" t="n"/>
       <c r="E80" s="66" t="n"/>
       <c r="F80" s="66" t="n"/>
-      <c r="G80" s="107" t="inlineStr">
+      <c r="G80" s="109" t="inlineStr">
         <is>
           <t>423-290-5919</t>
         </is>
       </c>
-      <c r="H80" s="108" t="inlineStr">
+      <c r="H80" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I80" s="65" t="n"/>
-      <c r="J80" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K80" s="108" t="inlineStr">
+      <c r="I80" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J80" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K80" s="110" t="inlineStr">
         <is>
           <t>PU-8724</t>
         </is>
       </c>
-      <c r="L80" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L80" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M80" s="65" t="n"/>
@@ -5147,13 +5605,17 @@
       <c r="W80" s="64" t="n"/>
     </row>
     <row r="81" ht="12.75" customHeight="1" s="71">
-      <c r="A81" s="65" t="n"/>
-      <c r="B81" s="106" t="inlineStr">
+      <c r="A81" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B81" s="108" t="inlineStr">
         <is>
           <t>Foutch</t>
         </is>
       </c>
-      <c r="C81" s="106" t="inlineStr">
+      <c r="C81" s="108" t="inlineStr">
         <is>
           <t>Kelly</t>
         </is>
@@ -5161,30 +5623,34 @@
       <c r="D81" s="65" t="n"/>
       <c r="E81" s="66" t="n"/>
       <c r="F81" s="66" t="n"/>
-      <c r="G81" s="107" t="inlineStr">
+      <c r="G81" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H81" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I81" s="65" t="n"/>
-      <c r="J81" s="108" t="inlineStr">
+      <c r="H81" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I81" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J81" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K81" s="108" t="inlineStr">
+      <c r="K81" s="110" t="inlineStr">
         <is>
           <t>BT-2565</t>
         </is>
       </c>
-      <c r="L81" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L81" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M81" s="65" t="n"/>
@@ -5200,13 +5666,17 @@
       <c r="W81" s="64" t="n"/>
     </row>
     <row r="82" ht="12.75" customHeight="1" s="71">
-      <c r="A82" s="65" t="n"/>
-      <c r="B82" s="106" t="inlineStr">
+      <c r="A82" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B82" s="108" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C82" s="106" t="inlineStr">
+      <c r="C82" s="108" t="inlineStr">
         <is>
           <t>Hunter</t>
         </is>
@@ -5214,30 +5684,34 @@
       <c r="D82" s="65" t="n"/>
       <c r="E82" s="66" t="n"/>
       <c r="F82" s="66" t="n"/>
-      <c r="G82" s="107" t="inlineStr">
+      <c r="G82" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H82" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I82" s="65" t="n"/>
-      <c r="J82" s="108" t="inlineStr">
+      <c r="H82" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I82" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J82" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K82" s="108" t="inlineStr">
+      <c r="K82" s="110" t="inlineStr">
         <is>
           <t>DD-4664</t>
         </is>
       </c>
-      <c r="L82" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L82" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M82" s="65" t="n"/>
@@ -5253,13 +5727,17 @@
       <c r="W82" s="64" t="n"/>
     </row>
     <row r="83" ht="12.75" customHeight="1" s="71">
-      <c r="A83" s="65" t="n"/>
-      <c r="B83" s="106" t="inlineStr">
+      <c r="A83" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B83" s="108" t="inlineStr">
         <is>
           <t>Crockett</t>
         </is>
       </c>
-      <c r="C83" s="106" t="inlineStr">
+      <c r="C83" s="108" t="inlineStr">
         <is>
           <t>Trace</t>
         </is>
@@ -5267,30 +5745,34 @@
       <c r="D83" s="65" t="n"/>
       <c r="E83" s="66" t="n"/>
       <c r="F83" s="66" t="n"/>
-      <c r="G83" s="107" t="inlineStr">
+      <c r="G83" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H83" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I83" s="65" t="n"/>
-      <c r="J83" s="108" t="inlineStr">
+      <c r="H83" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I83" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J83" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K83" s="108" t="inlineStr">
+      <c r="K83" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L83" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L83" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M83" s="65" t="n"/>
@@ -5306,13 +5788,17 @@
       <c r="W83" s="64" t="n"/>
     </row>
     <row r="84" ht="12.75" customHeight="1" s="71">
-      <c r="A84" s="65" t="n"/>
-      <c r="B84" s="106" t="inlineStr">
+      <c r="A84" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B84" s="108" t="inlineStr">
         <is>
           <t>Blair</t>
         </is>
       </c>
-      <c r="C84" s="106" t="inlineStr">
+      <c r="C84" s="108" t="inlineStr">
         <is>
           <t>John</t>
         </is>
@@ -5320,30 +5806,34 @@
       <c r="D84" s="65" t="n"/>
       <c r="E84" s="66" t="n"/>
       <c r="F84" s="66" t="n"/>
-      <c r="G84" s="107" t="inlineStr">
+      <c r="G84" s="109" t="inlineStr">
         <is>
           <t>931-622-2822</t>
         </is>
       </c>
-      <c r="H84" s="108" t="inlineStr">
+      <c r="H84" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I84" s="65" t="n"/>
-      <c r="J84" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K84" s="108" t="inlineStr">
+      <c r="I84" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J84" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K84" s="110" t="inlineStr">
         <is>
           <t>PU-4727</t>
         </is>
       </c>
-      <c r="L84" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L84" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M84" s="65" t="n"/>
@@ -5359,13 +5849,17 @@
       <c r="W84" s="64" t="n"/>
     </row>
     <row r="85" ht="12.75" customHeight="1" s="71">
-      <c r="A85" s="65" t="n"/>
-      <c r="B85" s="106" t="inlineStr">
+      <c r="A85" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B85" s="108" t="inlineStr">
         <is>
           <t>Mayberry</t>
         </is>
       </c>
-      <c r="C85" s="106" t="inlineStr">
+      <c r="C85" s="108" t="inlineStr">
         <is>
           <t>Austin</t>
         </is>
@@ -5373,30 +5867,34 @@
       <c r="D85" s="65" t="n"/>
       <c r="E85" s="66" t="n"/>
       <c r="F85" s="66" t="n"/>
-      <c r="G85" s="107" t="inlineStr">
+      <c r="G85" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H85" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I85" s="65" t="n"/>
-      <c r="J85" s="108" t="inlineStr">
+      <c r="H85" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I85" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J85" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K85" s="108" t="inlineStr">
+      <c r="K85" s="110" t="inlineStr">
         <is>
           <t>BT-9891</t>
         </is>
       </c>
-      <c r="L85" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L85" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M85" s="65" t="n"/>
@@ -5412,13 +5910,17 @@
       <c r="W85" s="64" t="n"/>
     </row>
     <row r="86" ht="12.75" customHeight="1" s="71">
-      <c r="A86" s="65" t="n"/>
-      <c r="B86" s="106" t="inlineStr">
+      <c r="A86" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B86" s="108" t="inlineStr">
         <is>
           <t>Dennis</t>
         </is>
       </c>
-      <c r="C86" s="106" t="inlineStr">
+      <c r="C86" s="108" t="inlineStr">
         <is>
           <t>Jackie</t>
         </is>
@@ -5426,30 +5928,34 @@
       <c r="D86" s="65" t="n"/>
       <c r="E86" s="66" t="n"/>
       <c r="F86" s="66" t="n"/>
-      <c r="G86" s="107" t="inlineStr">
+      <c r="G86" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H86" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I86" s="65" t="n"/>
-      <c r="J86" s="108" t="inlineStr">
+      <c r="H86" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I86" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J86" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K86" s="108" t="inlineStr">
+      <c r="K86" s="110" t="inlineStr">
         <is>
           <t>DD-4184</t>
         </is>
       </c>
-      <c r="L86" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L86" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M86" s="65" t="n"/>
@@ -5465,13 +5971,17 @@
       <c r="W86" s="64" t="n"/>
     </row>
     <row r="87" ht="12.75" customHeight="1" s="71">
-      <c r="A87" s="65" t="n"/>
-      <c r="B87" s="106" t="inlineStr">
+      <c r="A87" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B87" s="108" t="inlineStr">
         <is>
           <t>Millican</t>
         </is>
       </c>
-      <c r="C87" s="106" t="inlineStr">
+      <c r="C87" s="108" t="inlineStr">
         <is>
           <t>Isaac</t>
         </is>
@@ -5479,30 +5989,34 @@
       <c r="D87" s="65" t="n"/>
       <c r="E87" s="66" t="n"/>
       <c r="F87" s="66" t="n"/>
-      <c r="G87" s="107" t="inlineStr">
+      <c r="G87" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H87" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I87" s="65" t="n"/>
-      <c r="J87" s="108" t="inlineStr">
+      <c r="H87" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I87" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J87" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K87" s="108" t="inlineStr">
+      <c r="K87" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L87" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L87" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M87" s="65" t="n"/>
@@ -5518,13 +6032,17 @@
       <c r="W87" s="64" t="n"/>
     </row>
     <row r="88" ht="12.75" customHeight="1" s="71">
-      <c r="A88" s="65" t="n"/>
-      <c r="B88" s="106" t="inlineStr">
+      <c r="A88" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B88" s="108" t="inlineStr">
         <is>
           <t>Gifford</t>
         </is>
       </c>
-      <c r="C88" s="106" t="inlineStr">
+      <c r="C88" s="108" t="inlineStr">
         <is>
           <t>Jamey</t>
         </is>
@@ -5532,30 +6050,34 @@
       <c r="D88" s="65" t="n"/>
       <c r="E88" s="66" t="n"/>
       <c r="F88" s="66" t="n"/>
-      <c r="G88" s="107" t="inlineStr">
+      <c r="G88" s="109" t="inlineStr">
         <is>
           <t>931-273-0727</t>
         </is>
       </c>
-      <c r="H88" s="108" t="inlineStr">
+      <c r="H88" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I88" s="65" t="n"/>
-      <c r="J88" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K88" s="108" t="inlineStr">
+      <c r="I88" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J88" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K88" s="110" t="inlineStr">
         <is>
           <t>PU-8024</t>
         </is>
       </c>
-      <c r="L88" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L88" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M88" s="65" t="n"/>
@@ -5571,13 +6093,17 @@
       <c r="W88" s="64" t="n"/>
     </row>
     <row r="89" ht="12.75" customHeight="1" s="71">
-      <c r="A89" s="65" t="n"/>
-      <c r="B89" s="106" t="inlineStr">
+      <c r="A89" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B89" s="108" t="inlineStr">
         <is>
           <t>Weakley</t>
         </is>
       </c>
-      <c r="C89" s="106" t="inlineStr">
+      <c r="C89" s="108" t="inlineStr">
         <is>
           <t>Allen</t>
         </is>
@@ -5585,30 +6111,34 @@
       <c r="D89" s="65" t="n"/>
       <c r="E89" s="66" t="n"/>
       <c r="F89" s="66" t="n"/>
-      <c r="G89" s="107" t="inlineStr">
+      <c r="G89" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H89" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I89" s="65" t="n"/>
-      <c r="J89" s="108" t="inlineStr">
+      <c r="H89" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I89" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J89" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K89" s="108" t="inlineStr">
+      <c r="K89" s="110" t="inlineStr">
         <is>
           <t>BT-9889</t>
         </is>
       </c>
-      <c r="L89" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L89" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M89" s="65" t="n"/>
@@ -5624,13 +6154,17 @@
       <c r="W89" s="64" t="n"/>
     </row>
     <row r="90" ht="12.75" customHeight="1" s="71">
-      <c r="A90" s="65" t="n"/>
-      <c r="B90" s="106" t="inlineStr">
+      <c r="A90" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B90" s="108" t="inlineStr">
         <is>
           <t>Gifford</t>
         </is>
       </c>
-      <c r="C90" s="106" t="inlineStr">
+      <c r="C90" s="108" t="inlineStr">
         <is>
           <t>Andrew</t>
         </is>
@@ -5638,30 +6172,34 @@
       <c r="D90" s="65" t="n"/>
       <c r="E90" s="66" t="n"/>
       <c r="F90" s="66" t="n"/>
-      <c r="G90" s="107" t="inlineStr">
+      <c r="G90" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H90" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I90" s="65" t="n"/>
-      <c r="J90" s="108" t="inlineStr">
+      <c r="H90" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I90" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J90" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K90" s="108" t="inlineStr">
+      <c r="K90" s="110" t="inlineStr">
         <is>
           <t>DD-5911</t>
         </is>
       </c>
-      <c r="L90" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L90" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M90" s="65" t="n"/>
@@ -5677,13 +6215,17 @@
       <c r="W90" s="64" t="n"/>
     </row>
     <row r="91" ht="12.75" customHeight="1" s="71">
-      <c r="A91" s="65" t="n"/>
-      <c r="B91" s="106" t="inlineStr">
+      <c r="A91" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B91" s="108" t="inlineStr">
         <is>
           <t>Sisk</t>
         </is>
       </c>
-      <c r="C91" s="106" t="inlineStr">
+      <c r="C91" s="108" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -5691,30 +6233,34 @@
       <c r="D91" s="65" t="n"/>
       <c r="E91" s="66" t="n"/>
       <c r="F91" s="66" t="n"/>
-      <c r="G91" s="107" t="inlineStr">
+      <c r="G91" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H91" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I91" s="65" t="n"/>
-      <c r="J91" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K91" s="108" t="inlineStr">
+      <c r="H91" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I91" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J91" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K91" s="110" t="inlineStr">
         <is>
           <t>BYM-3294</t>
         </is>
       </c>
-      <c r="L91" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L91" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M91" s="65" t="n"/>
@@ -5730,13 +6276,17 @@
       <c r="W91" s="64" t="n"/>
     </row>
     <row r="92" ht="12.75" customHeight="1" s="71">
-      <c r="A92" s="65" t="n"/>
-      <c r="B92" s="106" t="inlineStr">
+      <c r="A92" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B92" s="108" t="inlineStr">
         <is>
           <t>Sims</t>
         </is>
       </c>
-      <c r="C92" s="106" t="inlineStr">
+      <c r="C92" s="108" t="inlineStr">
         <is>
           <t>Justin</t>
         </is>
@@ -5744,30 +6294,34 @@
       <c r="D92" s="65" t="n"/>
       <c r="E92" s="66" t="n"/>
       <c r="F92" s="66" t="n"/>
-      <c r="G92" s="107" t="inlineStr">
+      <c r="G92" s="109" t="inlineStr">
         <is>
           <t>423-260-9310</t>
         </is>
       </c>
-      <c r="H92" s="108" t="inlineStr">
+      <c r="H92" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I92" s="65" t="n"/>
-      <c r="J92" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K92" s="108" t="inlineStr">
+      <c r="I92" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J92" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K92" s="110" t="inlineStr">
         <is>
           <t>PU-15</t>
         </is>
       </c>
-      <c r="L92" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L92" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M92" s="65" t="n"/>
@@ -5783,13 +6337,17 @@
       <c r="W92" s="64" t="n"/>
     </row>
     <row r="93" ht="12.75" customHeight="1" s="71">
-      <c r="A93" s="65" t="n"/>
-      <c r="B93" s="106" t="inlineStr">
+      <c r="A93" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B93" s="108" t="inlineStr">
         <is>
           <t>Kanady</t>
         </is>
       </c>
-      <c r="C93" s="106" t="inlineStr">
+      <c r="C93" s="108" t="inlineStr">
         <is>
           <t>Darrell</t>
         </is>
@@ -5797,30 +6355,34 @@
       <c r="D93" s="65" t="n"/>
       <c r="E93" s="66" t="n"/>
       <c r="F93" s="66" t="n"/>
-      <c r="G93" s="107" t="inlineStr">
+      <c r="G93" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H93" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I93" s="65" t="n"/>
-      <c r="J93" s="108" t="inlineStr">
+      <c r="H93" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I93" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J93" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K93" s="108" t="inlineStr">
+      <c r="K93" s="110" t="inlineStr">
         <is>
           <t>BT-9618</t>
         </is>
       </c>
-      <c r="L93" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L93" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M93" s="65" t="n"/>
@@ -5836,13 +6398,17 @@
       <c r="W93" s="64" t="n"/>
     </row>
     <row r="94" ht="12.75" customHeight="1" s="71">
-      <c r="A94" s="65" t="n"/>
-      <c r="B94" s="106" t="inlineStr">
+      <c r="A94" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B94" s="108" t="inlineStr">
         <is>
           <t>Meadows</t>
         </is>
       </c>
-      <c r="C94" s="106" t="inlineStr">
+      <c r="C94" s="108" t="inlineStr">
         <is>
           <t>Matthew</t>
         </is>
@@ -5850,30 +6416,34 @@
       <c r="D94" s="65" t="n"/>
       <c r="E94" s="66" t="n"/>
       <c r="F94" s="66" t="n"/>
-      <c r="G94" s="107" t="inlineStr">
+      <c r="G94" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H94" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I94" s="65" t="n"/>
-      <c r="J94" s="108" t="inlineStr">
+      <c r="H94" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I94" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J94" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K94" s="108" t="inlineStr">
+      <c r="K94" s="110" t="inlineStr">
         <is>
           <t>DD-0935</t>
         </is>
       </c>
-      <c r="L94" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L94" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M94" s="65" t="n"/>
@@ -5889,13 +6459,17 @@
       <c r="W94" s="64" t="n"/>
     </row>
     <row r="95" ht="12.75" customHeight="1" s="71">
-      <c r="A95" s="65" t="n"/>
-      <c r="B95" s="106" t="inlineStr">
+      <c r="A95" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B95" s="108" t="inlineStr">
         <is>
           <t>Mcbryar</t>
         </is>
       </c>
-      <c r="C95" s="106" t="inlineStr">
+      <c r="C95" s="108" t="inlineStr">
         <is>
           <t>Devin</t>
         </is>
@@ -5903,30 +6477,34 @@
       <c r="D95" s="65" t="n"/>
       <c r="E95" s="66" t="n"/>
       <c r="F95" s="66" t="n"/>
-      <c r="G95" s="107" t="inlineStr">
+      <c r="G95" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H95" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I95" s="65" t="n"/>
-      <c r="J95" s="108" t="inlineStr">
+      <c r="H95" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I95" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J95" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K95" s="108" t="inlineStr">
+      <c r="K95" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L95" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L95" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M95" s="65" t="n"/>
@@ -5942,13 +6520,17 @@
       <c r="W95" s="64" t="n"/>
     </row>
     <row r="96" ht="12.75" customHeight="1" s="71">
-      <c r="A96" s="65" t="n"/>
-      <c r="B96" s="106" t="inlineStr">
+      <c r="A96" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B96" s="108" t="inlineStr">
         <is>
           <t>Hall</t>
         </is>
       </c>
-      <c r="C96" s="106" t="inlineStr">
+      <c r="C96" s="108" t="inlineStr">
         <is>
           <t>Preston</t>
         </is>
@@ -5956,30 +6538,34 @@
       <c r="D96" s="65" t="n"/>
       <c r="E96" s="66" t="n"/>
       <c r="F96" s="66" t="n"/>
-      <c r="G96" s="107" t="inlineStr">
+      <c r="G96" s="109" t="inlineStr">
         <is>
           <t>870-810-2516</t>
         </is>
       </c>
-      <c r="H96" s="108" t="inlineStr">
+      <c r="H96" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I96" s="65" t="n"/>
-      <c r="J96" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K96" s="108" t="inlineStr">
+      <c r="I96" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J96" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K96" s="110" t="inlineStr">
         <is>
           <t>PU-8059</t>
         </is>
       </c>
-      <c r="L96" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L96" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M96" s="65" t="n"/>
@@ -5995,13 +6581,17 @@
       <c r="W96" s="64" t="n"/>
     </row>
     <row r="97" ht="12.75" customHeight="1" s="71">
-      <c r="A97" s="65" t="n"/>
-      <c r="B97" s="106" t="inlineStr">
+      <c r="A97" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B97" s="108" t="inlineStr">
         <is>
           <t>Keeney</t>
         </is>
       </c>
-      <c r="C97" s="106" t="inlineStr">
+      <c r="C97" s="108" t="inlineStr">
         <is>
           <t>Curtis</t>
         </is>
@@ -6009,30 +6599,34 @@
       <c r="D97" s="65" t="n"/>
       <c r="E97" s="66" t="n"/>
       <c r="F97" s="66" t="n"/>
-      <c r="G97" s="107" t="inlineStr">
+      <c r="G97" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H97" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I97" s="65" t="n"/>
-      <c r="J97" s="108" t="inlineStr">
+      <c r="H97" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I97" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J97" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K97" s="108" t="inlineStr">
+      <c r="K97" s="110" t="inlineStr">
         <is>
           <t>BT-9610</t>
         </is>
       </c>
-      <c r="L97" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L97" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M97" s="65" t="n"/>
@@ -6048,13 +6642,17 @@
       <c r="W97" s="64" t="n"/>
     </row>
     <row r="98" ht="12.75" customHeight="1" s="71">
-      <c r="A98" s="65" t="n"/>
-      <c r="B98" s="106" t="inlineStr">
+      <c r="A98" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B98" s="108" t="inlineStr">
         <is>
           <t>Jones</t>
         </is>
       </c>
-      <c r="C98" s="106" t="inlineStr">
+      <c r="C98" s="108" t="inlineStr">
         <is>
           <t>Benjamin</t>
         </is>
@@ -6062,30 +6660,34 @@
       <c r="D98" s="65" t="n"/>
       <c r="E98" s="66" t="n"/>
       <c r="F98" s="66" t="n"/>
-      <c r="G98" s="107" t="inlineStr">
+      <c r="G98" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H98" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I98" s="65" t="n"/>
-      <c r="J98" s="108" t="inlineStr">
+      <c r="H98" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I98" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J98" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K98" s="108" t="inlineStr">
+      <c r="K98" s="110" t="inlineStr">
         <is>
           <t>DD-9654</t>
         </is>
       </c>
-      <c r="L98" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L98" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M98" s="65" t="n"/>
@@ -6101,13 +6703,17 @@
       <c r="W98" s="64" t="n"/>
     </row>
     <row r="99" ht="12.75" customHeight="1" s="71">
-      <c r="A99" s="65" t="n"/>
-      <c r="B99" s="106" t="inlineStr">
+      <c r="A99" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B99" s="108" t="inlineStr">
         <is>
           <t>Jones</t>
         </is>
       </c>
-      <c r="C99" s="106" t="inlineStr">
+      <c r="C99" s="108" t="inlineStr">
         <is>
           <t>Samuel</t>
         </is>
@@ -6115,30 +6721,34 @@
       <c r="D99" s="65" t="n"/>
       <c r="E99" s="66" t="n"/>
       <c r="F99" s="66" t="n"/>
-      <c r="G99" s="107" t="inlineStr">
+      <c r="G99" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H99" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I99" s="65" t="n"/>
-      <c r="J99" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K99" s="108" t="inlineStr">
+      <c r="H99" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I99" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J99" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K99" s="110" t="inlineStr">
         <is>
           <t>PT-5571</t>
         </is>
       </c>
-      <c r="L99" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L99" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M99" s="65" t="n"/>
@@ -6154,13 +6764,17 @@
       <c r="W99" s="64" t="n"/>
     </row>
     <row r="100" ht="12.75" customHeight="1" s="71">
-      <c r="A100" s="65" t="n"/>
-      <c r="B100" s="106" t="inlineStr">
+      <c r="A100" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B100" s="108" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="C100" s="106" t="inlineStr">
+      <c r="C100" s="108" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
@@ -6168,30 +6782,34 @@
       <c r="D100" s="65" t="n"/>
       <c r="E100" s="66" t="n"/>
       <c r="F100" s="66" t="n"/>
-      <c r="G100" s="107" t="inlineStr">
+      <c r="G100" s="109" t="inlineStr">
         <is>
           <t>573-429-3882</t>
         </is>
       </c>
-      <c r="H100" s="108" t="inlineStr">
+      <c r="H100" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I100" s="65" t="n"/>
-      <c r="J100" s="108" t="inlineStr">
+      <c r="I100" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J100" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K100" s="108" t="inlineStr">
+      <c r="K100" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L100" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L100" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M100" s="65" t="n"/>
@@ -6207,13 +6825,17 @@
       <c r="W100" s="64" t="n"/>
     </row>
     <row r="101" ht="12.75" customHeight="1" s="71">
-      <c r="A101" s="65" t="n"/>
-      <c r="B101" s="106" t="inlineStr">
+      <c r="A101" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B101" s="108" t="inlineStr">
         <is>
           <t>Melton</t>
         </is>
       </c>
-      <c r="C101" s="106" t="inlineStr">
+      <c r="C101" s="108" t="inlineStr">
         <is>
           <t>Tracey</t>
         </is>
@@ -6221,30 +6843,34 @@
       <c r="D101" s="65" t="n"/>
       <c r="E101" s="66" t="n"/>
       <c r="F101" s="66" t="n"/>
-      <c r="G101" s="107" t="inlineStr">
+      <c r="G101" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H101" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I101" s="65" t="n"/>
-      <c r="J101" s="108" t="inlineStr">
+      <c r="H101" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I101" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J101" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K101" s="108" t="inlineStr">
+      <c r="K101" s="110" t="inlineStr">
         <is>
           <t>BT-9617</t>
         </is>
       </c>
-      <c r="L101" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L101" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M101" s="65" t="n"/>
@@ -6260,13 +6886,17 @@
       <c r="W101" s="64" t="n"/>
     </row>
     <row r="102" ht="12.75" customHeight="1" s="71">
-      <c r="A102" s="65" t="n"/>
-      <c r="B102" s="106" t="inlineStr">
+      <c r="A102" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B102" s="108" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="C102" s="106" t="inlineStr">
+      <c r="C102" s="108" t="inlineStr">
         <is>
           <t>Brice</t>
         </is>
@@ -6274,30 +6904,34 @@
       <c r="D102" s="65" t="n"/>
       <c r="E102" s="66" t="n"/>
       <c r="F102" s="66" t="n"/>
-      <c r="G102" s="107" t="inlineStr">
+      <c r="G102" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H102" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I102" s="65" t="n"/>
-      <c r="J102" s="108" t="inlineStr">
+      <c r="H102" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I102" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J102" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K102" s="108" t="inlineStr">
+      <c r="K102" s="110" t="inlineStr">
         <is>
           <t>DD-1334</t>
         </is>
       </c>
-      <c r="L102" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L102" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M102" s="65" t="n"/>
@@ -6313,13 +6947,17 @@
       <c r="W102" s="64" t="n"/>
     </row>
     <row r="103" ht="12.75" customHeight="1" s="71">
-      <c r="A103" s="65" t="n"/>
-      <c r="B103" s="106" t="inlineStr">
+      <c r="A103" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B103" s="108" t="inlineStr">
         <is>
           <t>Edwards</t>
         </is>
       </c>
-      <c r="C103" s="106" t="inlineStr">
+      <c r="C103" s="108" t="inlineStr">
         <is>
           <t>Noah</t>
         </is>
@@ -6327,30 +6965,34 @@
       <c r="D103" s="65" t="n"/>
       <c r="E103" s="66" t="n"/>
       <c r="F103" s="66" t="n"/>
-      <c r="G103" s="107" t="inlineStr">
+      <c r="G103" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H103" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I103" s="65" t="n"/>
-      <c r="J103" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K103" s="108" t="inlineStr">
+      <c r="H103" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I103" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J103" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K103" s="110" t="inlineStr">
         <is>
           <t>BYM-3282</t>
         </is>
       </c>
-      <c r="L103" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L103" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M103" s="65" t="n"/>
@@ -6366,13 +7008,17 @@
       <c r="W103" s="64" t="n"/>
     </row>
     <row r="104" ht="12.75" customHeight="1" s="71">
-      <c r="A104" s="65" t="n"/>
-      <c r="B104" s="106" t="inlineStr">
+      <c r="A104" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B104" s="108" t="inlineStr">
         <is>
           <t>Ferguson</t>
         </is>
       </c>
-      <c r="C104" s="106" t="inlineStr">
+      <c r="C104" s="108" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
@@ -6380,30 +7026,34 @@
       <c r="D104" s="65" t="n"/>
       <c r="E104" s="66" t="n"/>
       <c r="F104" s="66" t="n"/>
-      <c r="G104" s="107" t="inlineStr">
+      <c r="G104" s="109" t="inlineStr">
         <is>
           <t>678-995-9692</t>
         </is>
       </c>
-      <c r="H104" s="108" t="inlineStr">
+      <c r="H104" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I104" s="65" t="n"/>
-      <c r="J104" s="108" t="inlineStr">
+      <c r="I104" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J104" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K104" s="108" t="inlineStr">
+      <c r="K104" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L104" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L104" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M104" s="65" t="n"/>
@@ -6419,13 +7069,17 @@
       <c r="W104" s="64" t="n"/>
     </row>
     <row r="105" ht="12.75" customHeight="1" s="71">
-      <c r="A105" s="65" t="n"/>
-      <c r="B105" s="106" t="inlineStr">
+      <c r="A105" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B105" s="108" t="inlineStr">
         <is>
           <t>Hubbard</t>
         </is>
       </c>
-      <c r="C105" s="106" t="inlineStr">
+      <c r="C105" s="108" t="inlineStr">
         <is>
           <t>Kenneth</t>
         </is>
@@ -6433,30 +7087,34 @@
       <c r="D105" s="65" t="n"/>
       <c r="E105" s="66" t="n"/>
       <c r="F105" s="66" t="n"/>
-      <c r="G105" s="107" t="inlineStr">
+      <c r="G105" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H105" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I105" s="65" t="n"/>
-      <c r="J105" s="108" t="inlineStr">
+      <c r="H105" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I105" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J105" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K105" s="108" t="inlineStr">
+      <c r="K105" s="110" t="inlineStr">
         <is>
           <t>BT-9892</t>
         </is>
       </c>
-      <c r="L105" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L105" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M105" s="65" t="n"/>
@@ -6472,13 +7130,17 @@
       <c r="W105" s="64" t="n"/>
     </row>
     <row r="106" ht="12.75" customHeight="1" s="71">
-      <c r="A106" s="65" t="n"/>
-      <c r="B106" s="106" t="inlineStr">
+      <c r="A106" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B106" s="108" t="inlineStr">
         <is>
           <t>Allen</t>
         </is>
       </c>
-      <c r="C106" s="106" t="inlineStr">
+      <c r="C106" s="108" t="inlineStr">
         <is>
           <t>Koby</t>
         </is>
@@ -6486,30 +7148,34 @@
       <c r="D106" s="65" t="n"/>
       <c r="E106" s="66" t="n"/>
       <c r="F106" s="66" t="n"/>
-      <c r="G106" s="107" t="inlineStr">
+      <c r="G106" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H106" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I106" s="65" t="n"/>
-      <c r="J106" s="108" t="inlineStr">
+      <c r="H106" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I106" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J106" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K106" s="108" t="inlineStr">
+      <c r="K106" s="110" t="inlineStr">
         <is>
           <t>DD-0440</t>
         </is>
       </c>
-      <c r="L106" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L106" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M106" s="65" t="n"/>
@@ -6525,13 +7191,17 @@
       <c r="W106" s="64" t="n"/>
     </row>
     <row r="107" ht="12.75" customHeight="1" s="71">
-      <c r="A107" s="65" t="n"/>
-      <c r="B107" s="106" t="inlineStr">
+      <c r="A107" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B107" s="108" t="inlineStr">
         <is>
           <t>Mcburnett</t>
         </is>
       </c>
-      <c r="C107" s="106" t="inlineStr">
+      <c r="C107" s="108" t="inlineStr">
         <is>
           <t>Parker</t>
         </is>
@@ -6539,30 +7209,34 @@
       <c r="D107" s="65" t="n"/>
       <c r="E107" s="66" t="n"/>
       <c r="F107" s="66" t="n"/>
-      <c r="G107" s="107" t="inlineStr">
+      <c r="G107" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H107" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I107" s="65" t="n"/>
-      <c r="J107" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K107" s="108" t="inlineStr">
+      <c r="H107" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I107" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J107" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K107" s="110" t="inlineStr">
         <is>
           <t>PT-5597</t>
         </is>
       </c>
-      <c r="L107" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L107" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M107" s="65" t="n"/>
@@ -6578,13 +7252,17 @@
       <c r="W107" s="64" t="n"/>
     </row>
     <row r="108" ht="12.75" customHeight="1" s="71">
-      <c r="A108" s="65" t="n"/>
-      <c r="B108" s="106" t="inlineStr">
+      <c r="A108" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B108" s="108" t="inlineStr">
         <is>
           <t>Rankin</t>
         </is>
       </c>
-      <c r="C108" s="106" t="inlineStr">
+      <c r="C108" s="108" t="inlineStr">
         <is>
           <t>James</t>
         </is>
@@ -6592,30 +7270,34 @@
       <c r="D108" s="65" t="n"/>
       <c r="E108" s="66" t="n"/>
       <c r="F108" s="66" t="n"/>
-      <c r="G108" s="107" t="inlineStr">
+      <c r="G108" s="109" t="inlineStr">
         <is>
           <t>865-712-5014</t>
         </is>
       </c>
-      <c r="H108" s="108" t="inlineStr">
+      <c r="H108" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I108" s="65" t="n"/>
-      <c r="J108" s="108" t="inlineStr">
+      <c r="I108" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J108" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K108" s="108" t="inlineStr">
+      <c r="K108" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L108" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L108" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M108" s="65" t="n"/>
@@ -6631,13 +7313,17 @@
       <c r="W108" s="64" t="n"/>
     </row>
     <row r="109" ht="12.75" customHeight="1" s="71">
-      <c r="A109" s="65" t="n"/>
-      <c r="B109" s="106" t="inlineStr">
+      <c r="A109" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B109" s="108" t="inlineStr">
         <is>
           <t>Heath</t>
         </is>
       </c>
-      <c r="C109" s="106" t="inlineStr">
+      <c r="C109" s="108" t="inlineStr">
         <is>
           <t>Ryan</t>
         </is>
@@ -6645,30 +7331,34 @@
       <c r="D109" s="65" t="n"/>
       <c r="E109" s="66" t="n"/>
       <c r="F109" s="66" t="n"/>
-      <c r="G109" s="107" t="inlineStr">
+      <c r="G109" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H109" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I109" s="65" t="n"/>
-      <c r="J109" s="108" t="inlineStr">
+      <c r="H109" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I109" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J109" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K109" s="108" t="inlineStr">
+      <c r="K109" s="110" t="inlineStr">
         <is>
           <t>BT-8647</t>
         </is>
       </c>
-      <c r="L109" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L109" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M109" s="65" t="n"/>
@@ -6684,13 +7374,17 @@
       <c r="W109" s="64" t="n"/>
     </row>
     <row r="110" ht="12.75" customHeight="1" s="71">
-      <c r="A110" s="65" t="n"/>
-      <c r="B110" s="106" t="inlineStr">
+      <c r="A110" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B110" s="108" t="inlineStr">
         <is>
           <t>Payton</t>
         </is>
       </c>
-      <c r="C110" s="106" t="inlineStr">
+      <c r="C110" s="108" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
@@ -6698,30 +7392,34 @@
       <c r="D110" s="65" t="n"/>
       <c r="E110" s="66" t="n"/>
       <c r="F110" s="66" t="n"/>
-      <c r="G110" s="107" t="inlineStr">
+      <c r="G110" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H110" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I110" s="65" t="n"/>
-      <c r="J110" s="108" t="inlineStr">
+      <c r="H110" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I110" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J110" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K110" s="108" t="inlineStr">
+      <c r="K110" s="110" t="inlineStr">
         <is>
           <t>DD-8073</t>
         </is>
       </c>
-      <c r="L110" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L110" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M110" s="65" t="n"/>
@@ -6737,13 +7435,17 @@
       <c r="W110" s="64" t="n"/>
     </row>
     <row r="111" ht="12.75" customHeight="1" s="71">
-      <c r="A111" s="65" t="n"/>
-      <c r="B111" s="106" t="inlineStr">
+      <c r="A111" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B111" s="108" t="inlineStr">
         <is>
           <t>Lindsey</t>
         </is>
       </c>
-      <c r="C111" s="106" t="inlineStr">
+      <c r="C111" s="108" t="inlineStr">
         <is>
           <t>Koy</t>
         </is>
@@ -6751,30 +7453,34 @@
       <c r="D111" s="65" t="n"/>
       <c r="E111" s="66" t="n"/>
       <c r="F111" s="66" t="n"/>
-      <c r="G111" s="107" t="inlineStr">
+      <c r="G111" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H111" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I111" s="65" t="n"/>
-      <c r="J111" s="108" t="inlineStr">
+      <c r="H111" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I111" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J111" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K111" s="108" t="inlineStr">
+      <c r="K111" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L111" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L111" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M111" s="65" t="n"/>
@@ -6790,13 +7496,17 @@
       <c r="W111" s="64" t="n"/>
     </row>
     <row r="112" ht="12.75" customHeight="1" s="71">
-      <c r="A112" s="65" t="n"/>
-      <c r="B112" s="106" t="inlineStr">
+      <c r="A112" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B112" s="108" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
       </c>
-      <c r="C112" s="106" t="inlineStr">
+      <c r="C112" s="108" t="inlineStr">
         <is>
           <t>Jeffery</t>
         </is>
@@ -6804,28 +7514,34 @@
       <c r="D112" s="65" t="n"/>
       <c r="E112" s="66" t="n"/>
       <c r="F112" s="66" t="n"/>
-      <c r="G112" s="107" t="inlineStr">
+      <c r="G112" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H112" s="108" t="inlineStr">
+      <c r="H112" s="110" t="inlineStr">
         <is>
           <t>Mechanic</t>
         </is>
       </c>
-      <c r="I112" s="65" t="n"/>
-      <c r="J112" s="108" t="inlineStr">
-        <is>
-          <t>Mechanic Truck</t>
-        </is>
-      </c>
-      <c r="K112" s="108" t="n">
-        <v>7362</v>
-      </c>
-      <c r="L112" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="I112" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J112" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K112" s="110" t="inlineStr">
+        <is>
+          <t>7362</t>
+        </is>
+      </c>
+      <c r="L112" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M112" s="65" t="n"/>
@@ -6841,13 +7557,17 @@
       <c r="W112" s="64" t="n"/>
     </row>
     <row r="113" ht="12.75" customHeight="1" s="71">
-      <c r="A113" s="65" t="n"/>
-      <c r="B113" s="106" t="inlineStr">
+      <c r="A113" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B113" s="108" t="inlineStr">
         <is>
           <t>Mccall</t>
         </is>
       </c>
-      <c r="C113" s="106" t="inlineStr">
+      <c r="C113" s="108" t="inlineStr">
         <is>
           <t>Zachery</t>
         </is>
@@ -6855,30 +7575,34 @@
       <c r="D113" s="65" t="n"/>
       <c r="E113" s="66" t="n"/>
       <c r="F113" s="66" t="n"/>
-      <c r="G113" s="107" t="inlineStr">
+      <c r="G113" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H113" s="108" t="inlineStr">
+      <c r="H113" s="110" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="I113" s="65" t="n"/>
-      <c r="J113" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K113" s="108" t="inlineStr">
+      <c r="I113" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J113" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K113" s="110" t="inlineStr">
         <is>
           <t>PU-9419</t>
         </is>
       </c>
-      <c r="L113" s="109" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="L113" s="111" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="M113" s="65" t="n"/>
@@ -6894,13 +7618,17 @@
       <c r="W113" s="64" t="n"/>
     </row>
     <row r="114" ht="12.75" customHeight="1" s="71">
-      <c r="A114" s="65" t="n"/>
-      <c r="B114" s="106" t="inlineStr">
+      <c r="A114" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B114" s="108" t="inlineStr">
         <is>
           <t>Turner</t>
         </is>
       </c>
-      <c r="C114" s="106" t="inlineStr">
+      <c r="C114" s="108" t="inlineStr">
         <is>
           <t>Christopher</t>
         </is>
@@ -6908,28 +7636,32 @@
       <c r="D114" s="65" t="n"/>
       <c r="E114" s="66" t="n"/>
       <c r="F114" s="66" t="n"/>
-      <c r="G114" s="107" t="inlineStr">
+      <c r="G114" s="109" t="inlineStr">
         <is>
           <t>419-957-8270</t>
         </is>
       </c>
-      <c r="H114" s="108" t="inlineStr">
+      <c r="H114" s="110" t="inlineStr">
         <is>
           <t>General Foreman</t>
         </is>
       </c>
-      <c r="I114" s="65" t="n"/>
-      <c r="J114" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K114" s="108" t="inlineStr">
+      <c r="I114" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J114" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K114" s="110" t="inlineStr">
         <is>
           <t>PU-3107</t>
         </is>
       </c>
-      <c r="L114" s="109" t="inlineStr">
+      <c r="L114" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -6947,13 +7679,17 @@
       <c r="W114" s="64" t="n"/>
     </row>
     <row r="115" ht="12.75" customHeight="1" s="71">
-      <c r="A115" s="65" t="n"/>
-      <c r="B115" s="106" t="inlineStr">
+      <c r="A115" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B115" s="108" t="inlineStr">
         <is>
           <t>Harlow</t>
         </is>
       </c>
-      <c r="C115" s="106" t="inlineStr">
+      <c r="C115" s="108" t="inlineStr">
         <is>
           <t>Jason</t>
         </is>
@@ -6961,28 +7697,32 @@
       <c r="D115" s="65" t="n"/>
       <c r="E115" s="66" t="n"/>
       <c r="F115" s="66" t="n"/>
-      <c r="G115" s="107" t="inlineStr">
+      <c r="G115" s="109" t="inlineStr">
         <is>
           <t>740-630-1174</t>
         </is>
       </c>
-      <c r="H115" s="108" t="inlineStr">
+      <c r="H115" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I115" s="65" t="n"/>
-      <c r="J115" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K115" s="108" t="inlineStr">
+      <c r="I115" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J115" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K115" s="110" t="inlineStr">
         <is>
           <t>PU-7847</t>
         </is>
       </c>
-      <c r="L115" s="109" t="inlineStr">
+      <c r="L115" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7000,13 +7740,17 @@
       <c r="W115" s="64" t="n"/>
     </row>
     <row r="116" ht="12.75" customHeight="1" s="71">
-      <c r="A116" s="65" t="n"/>
-      <c r="B116" s="106" t="inlineStr">
+      <c r="A116" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B116" s="108" t="inlineStr">
         <is>
           <t>Deel</t>
         </is>
       </c>
-      <c r="C116" s="106" t="inlineStr">
+      <c r="C116" s="108" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
@@ -7014,28 +7758,32 @@
       <c r="D116" s="65" t="n"/>
       <c r="E116" s="66" t="n"/>
       <c r="F116" s="66" t="n"/>
-      <c r="G116" s="107" t="inlineStr">
+      <c r="G116" s="109" t="inlineStr">
         <is>
           <t>304-559-9166</t>
         </is>
       </c>
-      <c r="H116" s="108" t="inlineStr">
+      <c r="H116" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I116" s="65" t="n"/>
-      <c r="J116" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K116" s="108" t="inlineStr">
+      <c r="I116" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J116" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K116" s="110" t="inlineStr">
         <is>
           <t>PU-3546</t>
         </is>
       </c>
-      <c r="L116" s="109" t="inlineStr">
+      <c r="L116" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7053,13 +7801,17 @@
       <c r="W116" s="64" t="n"/>
     </row>
     <row r="117" ht="12.75" customHeight="1" s="71">
-      <c r="A117" s="65" t="n"/>
-      <c r="B117" s="106" t="inlineStr">
+      <c r="A117" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B117" s="108" t="inlineStr">
         <is>
           <t>Welsh</t>
         </is>
       </c>
-      <c r="C117" s="106" t="inlineStr">
+      <c r="C117" s="108" t="inlineStr">
         <is>
           <t>Jared</t>
         </is>
@@ -7067,28 +7819,32 @@
       <c r="D117" s="65" t="n"/>
       <c r="E117" s="66" t="n"/>
       <c r="F117" s="66" t="n"/>
-      <c r="G117" s="107" t="inlineStr">
+      <c r="G117" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H117" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I117" s="65" t="n"/>
-      <c r="J117" s="108" t="inlineStr">
+      <c r="H117" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I117" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J117" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K117" s="108" t="inlineStr">
+      <c r="K117" s="110" t="inlineStr">
         <is>
           <t>BT-1040</t>
         </is>
       </c>
-      <c r="L117" s="109" t="inlineStr">
+      <c r="L117" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7106,13 +7862,17 @@
       <c r="W117" s="64" t="n"/>
     </row>
     <row r="118" ht="12.75" customHeight="1" s="71">
-      <c r="A118" s="65" t="n"/>
-      <c r="B118" s="106" t="inlineStr">
+      <c r="A118" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B118" s="108" t="inlineStr">
         <is>
           <t>Wright</t>
         </is>
       </c>
-      <c r="C118" s="106" t="inlineStr">
+      <c r="C118" s="108" t="inlineStr">
         <is>
           <t>James</t>
         </is>
@@ -7120,28 +7880,32 @@
       <c r="D118" s="65" t="n"/>
       <c r="E118" s="66" t="n"/>
       <c r="F118" s="66" t="n"/>
-      <c r="G118" s="107" t="inlineStr">
+      <c r="G118" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H118" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I118" s="65" t="n"/>
-      <c r="J118" s="108" t="inlineStr">
+      <c r="H118" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I118" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J118" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K118" s="108" t="inlineStr">
+      <c r="K118" s="110" t="inlineStr">
         <is>
           <t>DD-4031</t>
         </is>
       </c>
-      <c r="L118" s="109" t="inlineStr">
+      <c r="L118" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7159,13 +7923,17 @@
       <c r="W118" s="64" t="n"/>
     </row>
     <row r="119" ht="12.75" customHeight="1" s="71">
-      <c r="A119" s="65" t="n"/>
-      <c r="B119" s="106" t="inlineStr">
+      <c r="A119" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B119" s="108" t="inlineStr">
         <is>
           <t>Eshelman</t>
         </is>
       </c>
-      <c r="C119" s="106" t="inlineStr">
+      <c r="C119" s="108" t="inlineStr">
         <is>
           <t>Shane</t>
         </is>
@@ -7173,28 +7941,32 @@
       <c r="D119" s="65" t="n"/>
       <c r="E119" s="66" t="n"/>
       <c r="F119" s="66" t="n"/>
-      <c r="G119" s="107" t="inlineStr">
+      <c r="G119" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H119" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I119" s="65" t="n"/>
-      <c r="J119" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K119" s="108" t="inlineStr">
+      <c r="H119" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I119" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J119" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K119" s="110" t="inlineStr">
         <is>
           <t>PT-4031</t>
         </is>
       </c>
-      <c r="L119" s="109" t="inlineStr">
+      <c r="L119" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7212,13 +7984,17 @@
       <c r="W119" s="64" t="n"/>
     </row>
     <row r="120" ht="12.75" customHeight="1" s="71">
-      <c r="A120" s="65" t="n"/>
-      <c r="B120" s="106" t="inlineStr">
+      <c r="A120" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B120" s="108" t="inlineStr">
         <is>
           <t>Wolfe</t>
         </is>
       </c>
-      <c r="C120" s="106" t="inlineStr">
+      <c r="C120" s="108" t="inlineStr">
         <is>
           <t>Randy</t>
         </is>
@@ -7226,28 +8002,32 @@
       <c r="D120" s="65" t="n"/>
       <c r="E120" s="66" t="n"/>
       <c r="F120" s="66" t="n"/>
-      <c r="G120" s="107" t="inlineStr">
+      <c r="G120" s="109" t="inlineStr">
         <is>
           <t>740-970-1293</t>
         </is>
       </c>
-      <c r="H120" s="108" t="inlineStr">
+      <c r="H120" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I120" s="65" t="n"/>
-      <c r="J120" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K120" s="108" t="inlineStr">
+      <c r="I120" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J120" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K120" s="110" t="inlineStr">
         <is>
           <t>PU-5570</t>
         </is>
       </c>
-      <c r="L120" s="109" t="inlineStr">
+      <c r="L120" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7265,13 +8045,17 @@
       <c r="W120" s="64" t="n"/>
     </row>
     <row r="121" ht="12.75" customHeight="1" s="71">
-      <c r="A121" s="65" t="n"/>
-      <c r="B121" s="106" t="inlineStr">
+      <c r="A121" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B121" s="108" t="inlineStr">
         <is>
           <t>Daniels</t>
         </is>
       </c>
-      <c r="C121" s="106" t="inlineStr">
+      <c r="C121" s="108" t="inlineStr">
         <is>
           <t>Chad</t>
         </is>
@@ -7279,28 +8063,32 @@
       <c r="D121" s="65" t="n"/>
       <c r="E121" s="66" t="n"/>
       <c r="F121" s="66" t="n"/>
-      <c r="G121" s="107" t="inlineStr">
+      <c r="G121" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H121" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I121" s="65" t="n"/>
-      <c r="J121" s="108" t="inlineStr">
+      <c r="H121" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I121" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J121" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K121" s="108" t="inlineStr">
+      <c r="K121" s="110" t="inlineStr">
         <is>
           <t>BT-9476</t>
         </is>
       </c>
-      <c r="L121" s="109" t="inlineStr">
+      <c r="L121" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7318,13 +8106,17 @@
       <c r="W121" s="64" t="n"/>
     </row>
     <row r="122" ht="12.75" customHeight="1" s="71">
-      <c r="A122" s="65" t="n"/>
-      <c r="B122" s="106" t="inlineStr">
+      <c r="A122" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B122" s="108" t="inlineStr">
         <is>
           <t>Johnson</t>
         </is>
       </c>
-      <c r="C122" s="106" t="inlineStr">
+      <c r="C122" s="108" t="inlineStr">
         <is>
           <t>Jared</t>
         </is>
@@ -7332,28 +8124,32 @@
       <c r="D122" s="65" t="n"/>
       <c r="E122" s="66" t="n"/>
       <c r="F122" s="66" t="n"/>
-      <c r="G122" s="107" t="inlineStr">
+      <c r="G122" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H122" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I122" s="65" t="n"/>
-      <c r="J122" s="108" t="inlineStr">
+      <c r="H122" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I122" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J122" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K122" s="108" t="inlineStr">
+      <c r="K122" s="110" t="inlineStr">
         <is>
           <t>DD-4663</t>
         </is>
       </c>
-      <c r="L122" s="109" t="inlineStr">
+      <c r="L122" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7371,13 +8167,17 @@
       <c r="W122" s="64" t="n"/>
     </row>
     <row r="123" ht="12.75" customHeight="1" s="71">
-      <c r="A123" s="65" t="n"/>
-      <c r="B123" s="106" t="inlineStr">
+      <c r="A123" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B123" s="108" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="C123" s="106" t="inlineStr">
+      <c r="C123" s="108" t="inlineStr">
         <is>
           <t>Richard</t>
         </is>
@@ -7385,28 +8185,32 @@
       <c r="D123" s="65" t="n"/>
       <c r="E123" s="66" t="n"/>
       <c r="F123" s="66" t="n"/>
-      <c r="G123" s="107" t="inlineStr">
+      <c r="G123" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H123" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I123" s="65" t="n"/>
-      <c r="J123" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K123" s="108" t="inlineStr">
+      <c r="H123" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I123" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J123" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K123" s="110" t="inlineStr">
         <is>
           <t>BYM-2167</t>
         </is>
       </c>
-      <c r="L123" s="109" t="inlineStr">
+      <c r="L123" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7424,13 +8228,17 @@
       <c r="W123" s="64" t="n"/>
     </row>
     <row r="124" ht="12.75" customHeight="1" s="71">
-      <c r="A124" s="65" t="n"/>
-      <c r="B124" s="106" t="inlineStr">
+      <c r="A124" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B124" s="108" t="inlineStr">
         <is>
           <t>Warstler</t>
         </is>
       </c>
-      <c r="C124" s="106" t="inlineStr">
+      <c r="C124" s="108" t="inlineStr">
         <is>
           <t>Casey</t>
         </is>
@@ -7438,28 +8246,32 @@
       <c r="D124" s="65" t="n"/>
       <c r="E124" s="66" t="n"/>
       <c r="F124" s="66" t="n"/>
-      <c r="G124" s="107" t="inlineStr">
+      <c r="G124" s="109" t="inlineStr">
         <is>
           <t>740-607-1955</t>
         </is>
       </c>
-      <c r="H124" s="108" t="inlineStr">
+      <c r="H124" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I124" s="65" t="n"/>
-      <c r="J124" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K124" s="108" t="inlineStr">
+      <c r="I124" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J124" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K124" s="110" t="inlineStr">
         <is>
           <t>PU-0577</t>
         </is>
       </c>
-      <c r="L124" s="109" t="inlineStr">
+      <c r="L124" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7477,13 +8289,17 @@
       <c r="W124" s="64" t="n"/>
     </row>
     <row r="125" ht="12.75" customHeight="1" s="71">
-      <c r="A125" s="65" t="n"/>
-      <c r="B125" s="106" t="inlineStr">
+      <c r="A125" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B125" s="108" t="inlineStr">
         <is>
           <t>Cline</t>
         </is>
       </c>
-      <c r="C125" s="106" t="inlineStr">
+      <c r="C125" s="108" t="inlineStr">
         <is>
           <t>Christopher</t>
         </is>
@@ -7491,28 +8307,32 @@
       <c r="D125" s="65" t="n"/>
       <c r="E125" s="66" t="n"/>
       <c r="F125" s="66" t="n"/>
-      <c r="G125" s="107" t="inlineStr">
+      <c r="G125" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H125" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I125" s="65" t="n"/>
-      <c r="J125" s="108" t="inlineStr">
+      <c r="H125" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I125" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J125" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K125" s="108" t="inlineStr">
+      <c r="K125" s="110" t="inlineStr">
         <is>
           <t>BT-2922</t>
         </is>
       </c>
-      <c r="L125" s="109" t="inlineStr">
+      <c r="L125" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7530,13 +8350,17 @@
       <c r="W125" s="64" t="n"/>
     </row>
     <row r="126" ht="12.75" customHeight="1" s="71">
-      <c r="A126" s="65" t="n"/>
-      <c r="B126" s="106" t="inlineStr">
+      <c r="A126" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B126" s="108" t="inlineStr">
         <is>
           <t>Lynch</t>
         </is>
       </c>
-      <c r="C126" s="106" t="inlineStr">
+      <c r="C126" s="108" t="inlineStr">
         <is>
           <t>Bryan</t>
         </is>
@@ -7544,28 +8368,32 @@
       <c r="D126" s="65" t="n"/>
       <c r="E126" s="66" t="n"/>
       <c r="F126" s="66" t="n"/>
-      <c r="G126" s="107" t="inlineStr">
+      <c r="G126" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H126" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I126" s="65" t="n"/>
-      <c r="J126" s="108" t="inlineStr">
+      <c r="H126" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I126" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J126" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K126" s="108" t="inlineStr">
+      <c r="K126" s="110" t="inlineStr">
         <is>
           <t>DD-8619</t>
         </is>
       </c>
-      <c r="L126" s="109" t="inlineStr">
+      <c r="L126" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7583,13 +8411,17 @@
       <c r="W126" s="64" t="n"/>
     </row>
     <row r="127" ht="12.75" customHeight="1" s="71">
-      <c r="A127" s="65" t="n"/>
-      <c r="B127" s="106" t="inlineStr">
+      <c r="A127" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B127" s="108" t="inlineStr">
         <is>
           <t>Parshall</t>
         </is>
       </c>
-      <c r="C127" s="106" t="inlineStr">
+      <c r="C127" s="108" t="inlineStr">
         <is>
           <t>Garith</t>
         </is>
@@ -7597,28 +8429,32 @@
       <c r="D127" s="65" t="n"/>
       <c r="E127" s="66" t="n"/>
       <c r="F127" s="66" t="n"/>
-      <c r="G127" s="107" t="inlineStr">
+      <c r="G127" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H127" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I127" s="65" t="n"/>
-      <c r="J127" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K127" s="108" t="inlineStr">
+      <c r="H127" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I127" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J127" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K127" s="110" t="inlineStr">
         <is>
           <t>PT-4097</t>
         </is>
       </c>
-      <c r="L127" s="109" t="inlineStr">
+      <c r="L127" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7636,13 +8472,17 @@
       <c r="W127" s="64" t="n"/>
     </row>
     <row r="128" ht="12.75" customHeight="1" s="71">
-      <c r="A128" s="65" t="n"/>
-      <c r="B128" s="106" t="inlineStr">
+      <c r="A128" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B128" s="108" t="inlineStr">
         <is>
           <t>Boreman</t>
         </is>
       </c>
-      <c r="C128" s="106" t="inlineStr">
+      <c r="C128" s="108" t="inlineStr">
         <is>
           <t>Tayler</t>
         </is>
@@ -7650,28 +8490,32 @@
       <c r="D128" s="65" t="n"/>
       <c r="E128" s="66" t="n"/>
       <c r="F128" s="66" t="n"/>
-      <c r="G128" s="107" t="inlineStr">
+      <c r="G128" s="109" t="inlineStr">
         <is>
           <t>330-987-3134</t>
         </is>
       </c>
-      <c r="H128" s="108" t="inlineStr">
+      <c r="H128" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I128" s="65" t="n"/>
-      <c r="J128" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K128" s="108" t="inlineStr">
+      <c r="I128" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J128" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K128" s="110" t="inlineStr">
         <is>
           <t>PU-0021</t>
         </is>
       </c>
-      <c r="L128" s="109" t="inlineStr">
+      <c r="L128" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7689,13 +8533,17 @@
       <c r="W128" s="64" t="n"/>
     </row>
     <row r="129" ht="12.75" customHeight="1" s="71">
-      <c r="A129" s="65" t="n"/>
-      <c r="B129" s="106" t="inlineStr">
+      <c r="A129" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B129" s="108" t="inlineStr">
         <is>
           <t>Phelps</t>
         </is>
       </c>
-      <c r="C129" s="106" t="inlineStr">
+      <c r="C129" s="108" t="inlineStr">
         <is>
           <t>Eric</t>
         </is>
@@ -7703,28 +8551,32 @@
       <c r="D129" s="65" t="n"/>
       <c r="E129" s="66" t="n"/>
       <c r="F129" s="66" t="n"/>
-      <c r="G129" s="107" t="inlineStr">
+      <c r="G129" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H129" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I129" s="65" t="n"/>
-      <c r="J129" s="108" t="inlineStr">
+      <c r="H129" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I129" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J129" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K129" s="108" t="inlineStr">
+      <c r="K129" s="110" t="inlineStr">
         <is>
           <t>BT-4193</t>
         </is>
       </c>
-      <c r="L129" s="109" t="inlineStr">
+      <c r="L129" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7742,13 +8594,17 @@
       <c r="W129" s="64" t="n"/>
     </row>
     <row r="130" ht="12.75" customHeight="1" s="71">
-      <c r="A130" s="65" t="n"/>
-      <c r="B130" s="106" t="inlineStr">
+      <c r="A130" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B130" s="108" t="inlineStr">
         <is>
           <t>Kline</t>
         </is>
       </c>
-      <c r="C130" s="106" t="inlineStr">
+      <c r="C130" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -7756,28 +8612,32 @@
       <c r="D130" s="65" t="n"/>
       <c r="E130" s="66" t="n"/>
       <c r="F130" s="66" t="n"/>
-      <c r="G130" s="107" t="inlineStr">
+      <c r="G130" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H130" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I130" s="65" t="n"/>
-      <c r="J130" s="108" t="inlineStr">
+      <c r="H130" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I130" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J130" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K130" s="108" t="inlineStr">
+      <c r="K130" s="110" t="inlineStr">
         <is>
           <t>BT-5317</t>
         </is>
       </c>
-      <c r="L130" s="109" t="inlineStr">
+      <c r="L130" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7795,13 +8655,17 @@
       <c r="W130" s="64" t="n"/>
     </row>
     <row r="131" ht="12.75" customHeight="1" s="71">
-      <c r="A131" s="65" t="n"/>
-      <c r="B131" s="106" t="inlineStr">
+      <c r="A131" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B131" s="108" t="inlineStr">
         <is>
           <t>Mcdaniel</t>
         </is>
       </c>
-      <c r="C131" s="106" t="inlineStr">
+      <c r="C131" s="108" t="inlineStr">
         <is>
           <t>Tim</t>
         </is>
@@ -7809,28 +8673,32 @@
       <c r="D131" s="65" t="n"/>
       <c r="E131" s="66" t="n"/>
       <c r="F131" s="66" t="n"/>
-      <c r="G131" s="107" t="inlineStr">
+      <c r="G131" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H131" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I131" s="65" t="n"/>
-      <c r="J131" s="108" t="inlineStr">
+      <c r="H131" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I131" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J131" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K131" s="108" t="inlineStr">
+      <c r="K131" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L131" s="109" t="inlineStr">
+      <c r="L131" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7848,13 +8716,17 @@
       <c r="W131" s="64" t="n"/>
     </row>
     <row r="132" ht="12.75" customHeight="1" s="71">
-      <c r="A132" s="65" t="n"/>
-      <c r="B132" s="106" t="inlineStr">
+      <c r="A132" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B132" s="108" t="inlineStr">
         <is>
           <t>Rine</t>
         </is>
       </c>
-      <c r="C132" s="106" t="inlineStr">
+      <c r="C132" s="108" t="inlineStr">
         <is>
           <t>Roger</t>
         </is>
@@ -7862,28 +8734,32 @@
       <c r="D132" s="65" t="n"/>
       <c r="E132" s="66" t="n"/>
       <c r="F132" s="66" t="n"/>
-      <c r="G132" s="107" t="inlineStr">
+      <c r="G132" s="109" t="inlineStr">
         <is>
           <t>304-312-3563</t>
         </is>
       </c>
-      <c r="H132" s="108" t="inlineStr">
+      <c r="H132" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I132" s="65" t="n"/>
-      <c r="J132" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K132" s="108" t="inlineStr">
+      <c r="I132" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J132" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K132" s="110" t="inlineStr">
         <is>
           <t>PU-4716</t>
         </is>
       </c>
-      <c r="L132" s="109" t="inlineStr">
+      <c r="L132" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7901,13 +8777,17 @@
       <c r="W132" s="64" t="n"/>
     </row>
     <row r="133" ht="12.75" customHeight="1" s="71">
-      <c r="A133" s="65" t="n"/>
-      <c r="B133" s="106" t="inlineStr">
+      <c r="A133" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B133" s="108" t="inlineStr">
         <is>
           <t>Dougherty</t>
         </is>
       </c>
-      <c r="C133" s="106" t="inlineStr">
+      <c r="C133" s="108" t="inlineStr">
         <is>
           <t>Cheston</t>
         </is>
@@ -7915,28 +8795,32 @@
       <c r="D133" s="65" t="n"/>
       <c r="E133" s="66" t="n"/>
       <c r="F133" s="66" t="n"/>
-      <c r="G133" s="107" t="inlineStr">
+      <c r="G133" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H133" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I133" s="65" t="n"/>
-      <c r="J133" s="108" t="inlineStr">
+      <c r="H133" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I133" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J133" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K133" s="108" t="inlineStr">
+      <c r="K133" s="110" t="inlineStr">
         <is>
           <t>BT-5584</t>
         </is>
       </c>
-      <c r="L133" s="109" t="inlineStr">
+      <c r="L133" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -7954,13 +8838,17 @@
       <c r="W133" s="64" t="n"/>
     </row>
     <row r="134" ht="12.75" customHeight="1" s="71">
-      <c r="A134" s="65" t="n"/>
-      <c r="B134" s="106" t="inlineStr">
+      <c r="A134" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B134" s="108" t="inlineStr">
         <is>
           <t>Mitchell</t>
         </is>
       </c>
-      <c r="C134" s="106" t="inlineStr">
+      <c r="C134" s="108" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
@@ -7968,28 +8856,32 @@
       <c r="D134" s="65" t="n"/>
       <c r="E134" s="66" t="n"/>
       <c r="F134" s="66" t="n"/>
-      <c r="G134" s="107" t="inlineStr">
+      <c r="G134" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H134" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I134" s="65" t="n"/>
-      <c r="J134" s="108" t="inlineStr">
+      <c r="H134" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I134" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J134" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K134" s="108" t="inlineStr">
+      <c r="K134" s="110" t="inlineStr">
         <is>
           <t>BT-5898</t>
         </is>
       </c>
-      <c r="L134" s="109" t="inlineStr">
+      <c r="L134" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8007,13 +8899,17 @@
       <c r="W134" s="64" t="n"/>
     </row>
     <row r="135" ht="12.75" customHeight="1" s="71">
-      <c r="A135" s="65" t="n"/>
-      <c r="B135" s="106" t="inlineStr">
+      <c r="A135" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B135" s="108" t="inlineStr">
         <is>
           <t>Frost</t>
         </is>
       </c>
-      <c r="C135" s="106" t="inlineStr">
+      <c r="C135" s="108" t="inlineStr">
         <is>
           <t>Colton</t>
         </is>
@@ -8021,28 +8917,32 @@
       <c r="D135" s="65" t="n"/>
       <c r="E135" s="66" t="n"/>
       <c r="F135" s="66" t="n"/>
-      <c r="G135" s="107" t="inlineStr">
+      <c r="G135" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H135" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I135" s="65" t="n"/>
-      <c r="J135" s="108" t="inlineStr">
+      <c r="H135" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I135" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J135" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K135" s="108" t="inlineStr">
+      <c r="K135" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L135" s="109" t="inlineStr">
+      <c r="L135" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8060,13 +8960,17 @@
       <c r="W135" s="64" t="n"/>
     </row>
     <row r="136" ht="12.75" customHeight="1" s="71">
-      <c r="A136" s="65" t="n"/>
-      <c r="B136" s="106" t="inlineStr">
+      <c r="A136" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B136" s="108" t="inlineStr">
         <is>
           <t>Eutsler</t>
         </is>
       </c>
-      <c r="C136" s="106" t="inlineStr">
+      <c r="C136" s="108" t="inlineStr">
         <is>
           <t>Bronson</t>
         </is>
@@ -8074,28 +8978,32 @@
       <c r="D136" s="65" t="n"/>
       <c r="E136" s="66" t="n"/>
       <c r="F136" s="66" t="n"/>
-      <c r="G136" s="107" t="inlineStr">
+      <c r="G136" s="109" t="inlineStr">
         <is>
           <t>740-645-3716</t>
         </is>
       </c>
-      <c r="H136" s="108" t="inlineStr">
+      <c r="H136" s="110" t="inlineStr">
         <is>
           <t>General Foreman</t>
         </is>
       </c>
-      <c r="I136" s="65" t="n"/>
-      <c r="J136" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K136" s="108" t="inlineStr">
+      <c r="I136" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J136" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K136" s="110" t="inlineStr">
         <is>
           <t>PU-9627</t>
         </is>
       </c>
-      <c r="L136" s="109" t="inlineStr">
+      <c r="L136" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8113,13 +9021,17 @@
       <c r="W136" s="64" t="n"/>
     </row>
     <row r="137" ht="12.75" customHeight="1" s="71">
-      <c r="A137" s="65" t="n"/>
-      <c r="B137" s="106" t="inlineStr">
+      <c r="A137" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B137" s="108" t="inlineStr">
         <is>
           <t>Reynolds</t>
         </is>
       </c>
-      <c r="C137" s="106" t="inlineStr">
+      <c r="C137" s="108" t="inlineStr">
         <is>
           <t>Paul</t>
         </is>
@@ -8127,28 +9039,32 @@
       <c r="D137" s="65" t="n"/>
       <c r="E137" s="66" t="n"/>
       <c r="F137" s="66" t="n"/>
-      <c r="G137" s="107" t="inlineStr">
+      <c r="G137" s="109" t="inlineStr">
         <is>
           <t>740-853-0392</t>
         </is>
       </c>
-      <c r="H137" s="108" t="inlineStr">
+      <c r="H137" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I137" s="65" t="n"/>
-      <c r="J137" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K137" s="108" t="inlineStr">
+      <c r="I137" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J137" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K137" s="110" t="inlineStr">
         <is>
           <t>PU-7970</t>
         </is>
       </c>
-      <c r="L137" s="109" t="inlineStr">
+      <c r="L137" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8166,13 +9082,17 @@
       <c r="W137" s="64" t="n"/>
     </row>
     <row r="138" ht="12.75" customHeight="1" s="71">
-      <c r="A138" s="65" t="n"/>
-      <c r="B138" s="106" t="inlineStr">
+      <c r="A138" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B138" s="108" t="inlineStr">
         <is>
           <t>Evans</t>
         </is>
       </c>
-      <c r="C138" s="106" t="inlineStr">
+      <c r="C138" s="108" t="inlineStr">
         <is>
           <t>Jackie</t>
         </is>
@@ -8180,28 +9100,32 @@
       <c r="D138" s="65" t="n"/>
       <c r="E138" s="66" t="n"/>
       <c r="F138" s="66" t="n"/>
-      <c r="G138" s="107" t="inlineStr">
+      <c r="G138" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H138" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I138" s="65" t="n"/>
-      <c r="J138" s="108" t="inlineStr">
+      <c r="H138" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I138" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J138" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K138" s="108" t="inlineStr">
+      <c r="K138" s="110" t="inlineStr">
         <is>
           <t>BT-5981</t>
         </is>
       </c>
-      <c r="L138" s="109" t="inlineStr">
+      <c r="L138" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8219,13 +9143,17 @@
       <c r="W138" s="64" t="n"/>
     </row>
     <row r="139" ht="12.75" customHeight="1" s="71">
-      <c r="A139" s="65" t="n"/>
-      <c r="B139" s="106" t="inlineStr">
+      <c r="A139" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B139" s="108" t="inlineStr">
         <is>
           <t>Williamson</t>
         </is>
       </c>
-      <c r="C139" s="106" t="inlineStr">
+      <c r="C139" s="108" t="inlineStr">
         <is>
           <t>Scott</t>
         </is>
@@ -8233,28 +9161,32 @@
       <c r="D139" s="65" t="n"/>
       <c r="E139" s="66" t="n"/>
       <c r="F139" s="66" t="n"/>
-      <c r="G139" s="107" t="inlineStr">
+      <c r="G139" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H139" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I139" s="65" t="n"/>
-      <c r="J139" s="108" t="inlineStr">
+      <c r="H139" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I139" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J139" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K139" s="108" t="inlineStr">
+      <c r="K139" s="110" t="inlineStr">
         <is>
           <t>DD-5320</t>
         </is>
       </c>
-      <c r="L139" s="109" t="inlineStr">
+      <c r="L139" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8272,13 +9204,17 @@
       <c r="W139" s="64" t="n"/>
     </row>
     <row r="140" ht="12.75" customHeight="1" s="71">
-      <c r="A140" s="65" t="n"/>
-      <c r="B140" s="106" t="inlineStr">
+      <c r="A140" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B140" s="108" t="inlineStr">
         <is>
           <t>Yount</t>
         </is>
       </c>
-      <c r="C140" s="106" t="inlineStr">
+      <c r="C140" s="108" t="inlineStr">
         <is>
           <t>Jessica</t>
         </is>
@@ -8286,28 +9222,32 @@
       <c r="D140" s="65" t="n"/>
       <c r="E140" s="66" t="n"/>
       <c r="F140" s="66" t="n"/>
-      <c r="G140" s="107" t="inlineStr">
+      <c r="G140" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H140" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I140" s="65" t="n"/>
-      <c r="J140" s="108" t="inlineStr">
-        <is>
-          <t>Backyard Machine</t>
-        </is>
-      </c>
-      <c r="K140" s="108" t="inlineStr">
+      <c r="H140" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I140" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J140" s="110" t="inlineStr">
+        <is>
+          <t>Rear Property Machine</t>
+        </is>
+      </c>
+      <c r="K140" s="110" t="inlineStr">
         <is>
           <t>BYM-1851L</t>
         </is>
       </c>
-      <c r="L140" s="109" t="inlineStr">
+      <c r="L140" s="111" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -8325,13 +9265,17 @@
       <c r="W140" s="64" t="n"/>
     </row>
     <row r="141" ht="12.75" customHeight="1" s="71">
-      <c r="A141" s="65" t="n"/>
-      <c r="B141" s="106" t="inlineStr">
+      <c r="A141" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B141" s="108" t="inlineStr">
         <is>
           <t>Rayburn</t>
         </is>
       </c>
-      <c r="C141" s="106" t="inlineStr">
+      <c r="C141" s="108" t="inlineStr">
         <is>
           <t>Richard</t>
         </is>
@@ -8339,28 +9283,32 @@
       <c r="D141" s="65" t="n"/>
       <c r="E141" s="66" t="n"/>
       <c r="F141" s="66" t="n"/>
-      <c r="G141" s="107" t="inlineStr">
+      <c r="G141" s="109" t="inlineStr">
         <is>
           <t>606-547-5903</t>
         </is>
       </c>
-      <c r="H141" s="108" t="inlineStr">
+      <c r="H141" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I141" s="65" t="n"/>
-      <c r="J141" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K141" s="108" t="inlineStr">
+      <c r="I141" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J141" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K141" s="110" t="inlineStr">
         <is>
           <t>PU-5840</t>
         </is>
       </c>
-      <c r="L141" s="109" t="inlineStr">
+      <c r="L141" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8378,13 +9326,17 @@
       <c r="W141" s="64" t="n"/>
     </row>
     <row r="142" ht="12.75" customHeight="1" s="71">
-      <c r="A142" s="65" t="n"/>
-      <c r="B142" s="106" t="inlineStr">
+      <c r="A142" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B142" s="108" t="inlineStr">
         <is>
           <t>Cremeans</t>
         </is>
       </c>
-      <c r="C142" s="106" t="inlineStr">
+      <c r="C142" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -8392,28 +9344,32 @@
       <c r="D142" s="65" t="n"/>
       <c r="E142" s="66" t="n"/>
       <c r="F142" s="66" t="n"/>
-      <c r="G142" s="107" t="inlineStr">
+      <c r="G142" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H142" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I142" s="65" t="n"/>
-      <c r="J142" s="108" t="inlineStr">
+      <c r="H142" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I142" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J142" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K142" s="108" t="inlineStr">
+      <c r="K142" s="110" t="inlineStr">
         <is>
           <t>BT-5997</t>
         </is>
       </c>
-      <c r="L142" s="109" t="inlineStr">
+      <c r="L142" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8431,13 +9387,17 @@
       <c r="W142" s="64" t="n"/>
     </row>
     <row r="143" ht="12.75" customHeight="1" s="71">
-      <c r="A143" s="65" t="n"/>
-      <c r="B143" s="106" t="inlineStr">
+      <c r="A143" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B143" s="108" t="inlineStr">
         <is>
           <t>Swecker</t>
         </is>
       </c>
-      <c r="C143" s="106" t="inlineStr">
+      <c r="C143" s="108" t="inlineStr">
         <is>
           <t>Ronald</t>
         </is>
@@ -8445,28 +9405,32 @@
       <c r="D143" s="65" t="n"/>
       <c r="E143" s="66" t="n"/>
       <c r="F143" s="66" t="n"/>
-      <c r="G143" s="107" t="inlineStr">
+      <c r="G143" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H143" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I143" s="65" t="n"/>
-      <c r="J143" s="108" t="inlineStr">
+      <c r="H143" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I143" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J143" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K143" s="108" t="inlineStr">
+      <c r="K143" s="110" t="inlineStr">
         <is>
           <t>DD-8650</t>
         </is>
       </c>
-      <c r="L143" s="109" t="inlineStr">
+      <c r="L143" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8484,13 +9448,17 @@
       <c r="W143" s="64" t="n"/>
     </row>
     <row r="144" ht="12.75" customHeight="1" s="71">
-      <c r="A144" s="65" t="n"/>
-      <c r="B144" s="106" t="inlineStr">
+      <c r="A144" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B144" s="108" t="inlineStr">
         <is>
           <t>Phillips</t>
         </is>
       </c>
-      <c r="C144" s="106" t="inlineStr">
+      <c r="C144" s="108" t="inlineStr">
         <is>
           <t>Zackery</t>
         </is>
@@ -8498,28 +9466,32 @@
       <c r="D144" s="65" t="n"/>
       <c r="E144" s="66" t="n"/>
       <c r="F144" s="66" t="n"/>
-      <c r="G144" s="107" t="inlineStr">
+      <c r="G144" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H144" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I144" s="65" t="n"/>
-      <c r="J144" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K144" s="108" t="inlineStr">
+      <c r="H144" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I144" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J144" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K144" s="110" t="inlineStr">
         <is>
           <t>PT-4126</t>
         </is>
       </c>
-      <c r="L144" s="109" t="inlineStr">
+      <c r="L144" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8537,13 +9509,17 @@
       <c r="W144" s="64" t="n"/>
     </row>
     <row r="145" ht="12.75" customHeight="1" s="71">
-      <c r="A145" s="65" t="n"/>
-      <c r="B145" s="106" t="inlineStr">
+      <c r="A145" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B145" s="108" t="inlineStr">
         <is>
           <t>Fraley</t>
         </is>
       </c>
-      <c r="C145" s="106" t="inlineStr">
+      <c r="C145" s="108" t="inlineStr">
         <is>
           <t>Toby</t>
         </is>
@@ -8551,28 +9527,32 @@
       <c r="D145" s="65" t="n"/>
       <c r="E145" s="66" t="n"/>
       <c r="F145" s="66" t="n"/>
-      <c r="G145" s="107" t="inlineStr">
+      <c r="G145" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H145" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I145" s="65" t="n"/>
-      <c r="J145" s="108" t="inlineStr">
+      <c r="H145" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I145" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J145" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K145" s="108" t="inlineStr">
+      <c r="K145" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L145" s="109" t="inlineStr">
+      <c r="L145" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8590,13 +9570,17 @@
       <c r="W145" s="64" t="n"/>
     </row>
     <row r="146" ht="12.75" customHeight="1" s="71">
-      <c r="A146" s="65" t="n"/>
-      <c r="B146" s="106" t="inlineStr">
+      <c r="A146" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B146" s="108" t="inlineStr">
         <is>
           <t>Sturgeon</t>
         </is>
       </c>
-      <c r="C146" s="106" t="inlineStr">
+      <c r="C146" s="108" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
@@ -8604,28 +9588,32 @@
       <c r="D146" s="65" t="n"/>
       <c r="E146" s="66" t="n"/>
       <c r="F146" s="66" t="n"/>
-      <c r="G146" s="107" t="inlineStr">
+      <c r="G146" s="109" t="inlineStr">
         <is>
           <t>270-750-8220</t>
         </is>
       </c>
-      <c r="H146" s="108" t="inlineStr">
+      <c r="H146" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I146" s="65" t="n"/>
-      <c r="J146" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K146" s="108" t="inlineStr">
+      <c r="I146" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J146" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K146" s="110" t="inlineStr">
         <is>
           <t>PU-5579</t>
         </is>
       </c>
-      <c r="L146" s="109" t="inlineStr">
+      <c r="L146" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8643,13 +9631,17 @@
       <c r="W146" s="64" t="n"/>
     </row>
     <row r="147" ht="12.75" customHeight="1" s="71">
-      <c r="A147" s="65" t="n"/>
-      <c r="B147" s="106" t="inlineStr">
+      <c r="A147" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B147" s="108" t="inlineStr">
         <is>
           <t>Collins</t>
         </is>
       </c>
-      <c r="C147" s="106" t="inlineStr">
+      <c r="C147" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -8657,28 +9649,32 @@
       <c r="D147" s="65" t="n"/>
       <c r="E147" s="66" t="n"/>
       <c r="F147" s="66" t="n"/>
-      <c r="G147" s="107" t="inlineStr">
+      <c r="G147" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H147" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I147" s="65" t="n"/>
-      <c r="J147" s="108" t="inlineStr">
+      <c r="H147" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I147" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J147" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K147" s="108" t="inlineStr">
+      <c r="K147" s="110" t="inlineStr">
         <is>
           <t>BT-7139</t>
         </is>
       </c>
-      <c r="L147" s="109" t="inlineStr">
+      <c r="L147" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8696,13 +9692,17 @@
       <c r="W147" s="64" t="n"/>
     </row>
     <row r="148" ht="12.75" customHeight="1" s="71">
-      <c r="A148" s="65" t="n"/>
-      <c r="B148" s="106" t="inlineStr">
+      <c r="A148" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B148" s="108" t="inlineStr">
         <is>
           <t>Harper</t>
         </is>
       </c>
-      <c r="C148" s="106" t="inlineStr">
+      <c r="C148" s="108" t="inlineStr">
         <is>
           <t>Justin</t>
         </is>
@@ -8710,28 +9710,32 @@
       <c r="D148" s="65" t="n"/>
       <c r="E148" s="66" t="n"/>
       <c r="F148" s="66" t="n"/>
-      <c r="G148" s="107" t="inlineStr">
+      <c r="G148" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H148" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I148" s="65" t="n"/>
-      <c r="J148" s="108" t="inlineStr">
+      <c r="H148" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I148" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J148" s="110" t="inlineStr">
         <is>
           <t>Digger Derrick</t>
         </is>
       </c>
-      <c r="K148" s="108" t="inlineStr">
+      <c r="K148" s="110" t="inlineStr">
         <is>
           <t>DD-8672</t>
         </is>
       </c>
-      <c r="L148" s="109" t="inlineStr">
+      <c r="L148" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8749,13 +9753,17 @@
       <c r="W148" s="64" t="n"/>
     </row>
     <row r="149" ht="12.75" customHeight="1" s="71">
-      <c r="A149" s="65" t="n"/>
-      <c r="B149" s="106" t="inlineStr">
+      <c r="A149" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B149" s="108" t="inlineStr">
         <is>
           <t>Phelps</t>
         </is>
       </c>
-      <c r="C149" s="106" t="inlineStr">
+      <c r="C149" s="108" t="inlineStr">
         <is>
           <t>Tyler</t>
         </is>
@@ -8763,28 +9771,32 @@
       <c r="D149" s="65" t="n"/>
       <c r="E149" s="66" t="n"/>
       <c r="F149" s="66" t="n"/>
-      <c r="G149" s="107" t="inlineStr">
+      <c r="G149" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H149" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I149" s="65" t="n"/>
-      <c r="J149" s="108" t="inlineStr">
-        <is>
-          <t>Pole Trailer</t>
-        </is>
-      </c>
-      <c r="K149" s="108" t="inlineStr">
+      <c r="H149" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I149" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J149" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K149" s="110" t="inlineStr">
         <is>
           <t>PT-5405</t>
         </is>
       </c>
-      <c r="L149" s="109" t="inlineStr">
+      <c r="L149" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8802,13 +9814,17 @@
       <c r="W149" s="64" t="n"/>
     </row>
     <row r="150" ht="12.75" customHeight="1" s="71">
-      <c r="A150" s="65" t="n"/>
-      <c r="B150" s="106" t="inlineStr">
+      <c r="A150" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B150" s="108" t="inlineStr">
         <is>
           <t>Clapper</t>
         </is>
       </c>
-      <c r="C150" s="106" t="inlineStr">
+      <c r="C150" s="108" t="inlineStr">
         <is>
           <t>Andy</t>
         </is>
@@ -8816,28 +9832,32 @@
       <c r="D150" s="65" t="n"/>
       <c r="E150" s="66" t="n"/>
       <c r="F150" s="66" t="n"/>
-      <c r="G150" s="107" t="inlineStr">
+      <c r="G150" s="109" t="inlineStr">
         <is>
           <t>740-297-3019</t>
         </is>
       </c>
-      <c r="H150" s="108" t="inlineStr">
+      <c r="H150" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I150" s="65" t="n"/>
-      <c r="J150" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K150" s="108" t="inlineStr">
+      <c r="I150" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J150" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K150" s="110" t="inlineStr">
         <is>
           <t>PU-7977</t>
         </is>
       </c>
-      <c r="L150" s="109" t="inlineStr">
+      <c r="L150" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8855,13 +9875,17 @@
       <c r="W150" s="64" t="n"/>
     </row>
     <row r="151" ht="12.75" customHeight="1" s="71">
-      <c r="A151" s="65" t="n"/>
-      <c r="B151" s="106" t="inlineStr">
+      <c r="A151" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B151" s="108" t="inlineStr">
         <is>
           <t>Clapper</t>
         </is>
       </c>
-      <c r="C151" s="106" t="inlineStr">
+      <c r="C151" s="108" t="inlineStr">
         <is>
           <t>Jackson</t>
         </is>
@@ -8869,28 +9893,32 @@
       <c r="D151" s="65" t="n"/>
       <c r="E151" s="66" t="n"/>
       <c r="F151" s="66" t="n"/>
-      <c r="G151" s="107" t="inlineStr">
+      <c r="G151" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H151" s="108" t="inlineStr">
-        <is>
-          <t>Groundman / Driver</t>
-        </is>
-      </c>
-      <c r="I151" s="65" t="n"/>
-      <c r="J151" s="108" t="inlineStr">
+      <c r="H151" s="110" t="inlineStr">
+        <is>
+          <t>Line Groundhand</t>
+        </is>
+      </c>
+      <c r="I151" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J151" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K151" s="108" t="inlineStr">
+      <c r="K151" s="110" t="inlineStr">
         <is>
           <t>BT-6669</t>
         </is>
       </c>
-      <c r="L151" s="109" t="inlineStr">
+      <c r="L151" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8908,13 +9936,17 @@
       <c r="W151" s="64" t="n"/>
     </row>
     <row r="152" ht="12.75" customHeight="1" s="71">
-      <c r="A152" s="65" t="n"/>
-      <c r="B152" s="106" t="inlineStr">
+      <c r="A152" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B152" s="108" t="inlineStr">
         <is>
           <t>Michael</t>
         </is>
       </c>
-      <c r="C152" s="106" t="inlineStr">
+      <c r="C152" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -8922,28 +9954,32 @@
       <c r="D152" s="65" t="n"/>
       <c r="E152" s="66" t="n"/>
       <c r="F152" s="66" t="n"/>
-      <c r="G152" s="107" t="inlineStr">
+      <c r="G152" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H152" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I152" s="65" t="n"/>
-      <c r="J152" s="108" t="inlineStr">
+      <c r="H152" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I152" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J152" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K152" s="108" t="inlineStr">
+      <c r="K152" s="110" t="inlineStr">
         <is>
           <t>BT-7465</t>
         </is>
       </c>
-      <c r="L152" s="109" t="inlineStr">
+      <c r="L152" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -8961,13 +9997,17 @@
       <c r="W152" s="64" t="n"/>
     </row>
     <row r="153" ht="12.75" customHeight="1" s="71">
-      <c r="A153" s="65" t="n"/>
-      <c r="B153" s="106" t="inlineStr">
+      <c r="A153" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B153" s="108" t="inlineStr">
         <is>
           <t>Livengood</t>
         </is>
       </c>
-      <c r="C153" s="106" t="inlineStr">
+      <c r="C153" s="108" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
@@ -8975,28 +10015,32 @@
       <c r="D153" s="65" t="n"/>
       <c r="E153" s="66" t="n"/>
       <c r="F153" s="66" t="n"/>
-      <c r="G153" s="107" t="inlineStr">
+      <c r="G153" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H153" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I153" s="65" t="n"/>
-      <c r="J153" s="108" t="inlineStr">
+      <c r="H153" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I153" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J153" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K153" s="108" t="inlineStr">
+      <c r="K153" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L153" s="109" t="inlineStr">
+      <c r="L153" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9014,13 +10058,17 @@
       <c r="W153" s="64" t="n"/>
     </row>
     <row r="154" ht="12.75" customHeight="1" s="71">
-      <c r="A154" s="65" t="n"/>
-      <c r="B154" s="106" t="inlineStr">
+      <c r="A154" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B154" s="108" t="inlineStr">
         <is>
           <t>Lucas</t>
         </is>
       </c>
-      <c r="C154" s="106" t="inlineStr">
+      <c r="C154" s="108" t="inlineStr">
         <is>
           <t>Makale</t>
         </is>
@@ -9028,28 +10076,32 @@
       <c r="D154" s="65" t="n"/>
       <c r="E154" s="66" t="n"/>
       <c r="F154" s="66" t="n"/>
-      <c r="G154" s="107" t="inlineStr">
+      <c r="G154" s="109" t="inlineStr">
         <is>
           <t>270-668-9992</t>
         </is>
       </c>
-      <c r="H154" s="108" t="inlineStr">
+      <c r="H154" s="110" t="inlineStr">
         <is>
           <t>Foreman</t>
         </is>
       </c>
-      <c r="I154" s="65" t="n"/>
-      <c r="J154" s="108" t="inlineStr">
+      <c r="I154" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J154" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K154" s="108" t="inlineStr">
+      <c r="K154" s="110" t="inlineStr">
         <is>
           <t>BT-6080</t>
         </is>
       </c>
-      <c r="L154" s="109" t="inlineStr">
+      <c r="L154" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9067,13 +10119,17 @@
       <c r="W154" s="64" t="n"/>
     </row>
     <row r="155" ht="12.75" customHeight="1" s="71">
-      <c r="A155" s="65" t="n"/>
-      <c r="B155" s="106" t="inlineStr">
+      <c r="A155" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B155" s="108" t="inlineStr">
         <is>
           <t>Shaffer</t>
         </is>
       </c>
-      <c r="C155" s="106" t="inlineStr">
+      <c r="C155" s="108" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
@@ -9081,28 +10137,32 @@
       <c r="D155" s="65" t="n"/>
       <c r="E155" s="66" t="n"/>
       <c r="F155" s="66" t="n"/>
-      <c r="G155" s="107" t="inlineStr">
+      <c r="G155" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H155" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I155" s="65" t="n"/>
-      <c r="J155" s="108" t="inlineStr">
+      <c r="H155" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I155" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J155" s="110" t="inlineStr">
         <is>
           <t>Bucket Truck</t>
         </is>
       </c>
-      <c r="K155" s="108" t="inlineStr">
+      <c r="K155" s="110" t="inlineStr">
         <is>
           <t>BT-9415</t>
         </is>
       </c>
-      <c r="L155" s="109" t="inlineStr">
+      <c r="L155" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9120,13 +10180,17 @@
       <c r="W155" s="64" t="n"/>
     </row>
     <row r="156" ht="12.75" customHeight="1" s="71">
-      <c r="A156" s="65" t="n"/>
-      <c r="B156" s="106" t="inlineStr">
+      <c r="A156" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B156" s="108" t="inlineStr">
         <is>
           <t>Persival</t>
         </is>
       </c>
-      <c r="C156" s="106" t="inlineStr">
+      <c r="C156" s="108" t="inlineStr">
         <is>
           <t>Tyler</t>
         </is>
@@ -9134,28 +10198,32 @@
       <c r="D156" s="65" t="n"/>
       <c r="E156" s="66" t="n"/>
       <c r="F156" s="66" t="n"/>
-      <c r="G156" s="107" t="inlineStr">
+      <c r="G156" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H156" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I156" s="65" t="n"/>
-      <c r="J156" s="108" t="inlineStr">
+      <c r="H156" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I156" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J156" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K156" s="108" t="inlineStr">
+      <c r="K156" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L156" s="109" t="inlineStr">
+      <c r="L156" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9173,13 +10241,17 @@
       <c r="W156" s="64" t="n"/>
     </row>
     <row r="157" ht="12.75" customHeight="1" s="71">
-      <c r="A157" s="65" t="n"/>
-      <c r="B157" s="106" t="inlineStr">
+      <c r="A157" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B157" s="108" t="inlineStr">
         <is>
           <t>Stevens</t>
         </is>
       </c>
-      <c r="C157" s="106" t="inlineStr">
+      <c r="C157" s="108" t="inlineStr">
         <is>
           <t>Kyle</t>
         </is>
@@ -9187,28 +10259,32 @@
       <c r="D157" s="65" t="n"/>
       <c r="E157" s="66" t="n"/>
       <c r="F157" s="66" t="n"/>
-      <c r="G157" s="107" t="inlineStr">
+      <c r="G157" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H157" s="108" t="inlineStr">
-        <is>
-          <t>Journeyman Lineman</t>
-        </is>
-      </c>
-      <c r="I157" s="65" t="n"/>
-      <c r="J157" s="108" t="inlineStr">
+      <c r="H157" s="110" t="inlineStr">
+        <is>
+          <t>Line Jl</t>
+        </is>
+      </c>
+      <c r="I157" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J157" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="K157" s="108" t="inlineStr">
+      <c r="K157" s="110" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L157" s="109" t="inlineStr">
+      <c r="L157" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9226,13 +10302,17 @@
       <c r="W157" s="64" t="n"/>
     </row>
     <row r="158" ht="12.75" customHeight="1" s="71">
-      <c r="A158" s="65" t="n"/>
-      <c r="B158" s="106" t="inlineStr">
+      <c r="A158" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B158" s="108" t="inlineStr">
         <is>
           <t>Morgan</t>
         </is>
       </c>
-      <c r="C158" s="106" t="inlineStr">
+      <c r="C158" s="108" t="inlineStr">
         <is>
           <t>Douglas</t>
         </is>
@@ -9240,28 +10320,32 @@
       <c r="D158" s="65" t="n"/>
       <c r="E158" s="66" t="n"/>
       <c r="F158" s="66" t="n"/>
-      <c r="G158" s="107" t="inlineStr">
+      <c r="G158" s="109" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="H158" s="108" t="inlineStr">
-        <is>
-          <t>Equipment Operator</t>
-        </is>
-      </c>
-      <c r="I158" s="65" t="n"/>
-      <c r="J158" s="108" t="inlineStr">
-        <is>
-          <t>Haul Truck and Trailer</t>
-        </is>
-      </c>
-      <c r="K158" s="108" t="inlineStr">
-        <is>
-          <t>SM3150</t>
-        </is>
-      </c>
-      <c r="L158" s="109" t="inlineStr">
+      <c r="H158" s="110" t="inlineStr">
+        <is>
+          <t>Equipment Op</t>
+        </is>
+      </c>
+      <c r="I158" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J158" s="110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K158" s="110" t="inlineStr">
+        <is>
+          <t>SM1/3150</t>
+        </is>
+      </c>
+      <c r="L158" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9279,13 +10363,17 @@
       <c r="W158" s="64" t="n"/>
     </row>
     <row r="159" ht="12.75" customHeight="1" s="71">
-      <c r="A159" s="65" t="n"/>
-      <c r="B159" s="106" t="inlineStr">
+      <c r="A159" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B159" s="108" t="inlineStr">
         <is>
           <t>Osberger</t>
         </is>
       </c>
-      <c r="C159" s="106" t="inlineStr">
+      <c r="C159" s="108" t="inlineStr">
         <is>
           <t>Jeremy</t>
         </is>
@@ -9293,28 +10381,32 @@
       <c r="D159" s="65" t="n"/>
       <c r="E159" s="66" t="n"/>
       <c r="F159" s="66" t="n"/>
-      <c r="G159" s="107" t="inlineStr">
+      <c r="G159" s="109" t="inlineStr">
         <is>
           <t>419-486-9354</t>
         </is>
       </c>
-      <c r="H159" s="108" t="inlineStr">
+      <c r="H159" s="110" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="I159" s="65" t="n"/>
-      <c r="J159" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K159" s="108" t="inlineStr">
+      <c r="I159" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J159" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K159" s="110" t="inlineStr">
         <is>
           <t>PU-8749</t>
         </is>
       </c>
-      <c r="L159" s="109" t="inlineStr">
+      <c r="L159" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -9332,13 +10424,17 @@
       <c r="W159" s="64" t="n"/>
     </row>
     <row r="160" ht="12.75" customHeight="1" s="71">
-      <c r="A160" s="65" t="n"/>
-      <c r="B160" s="106" t="inlineStr">
+      <c r="A160" s="107" t="inlineStr">
+        <is>
+          <t>Premium Utility Contractor</t>
+        </is>
+      </c>
+      <c r="B160" s="108" t="inlineStr">
         <is>
           <t>Rocchi</t>
         </is>
       </c>
-      <c r="C160" s="106" t="inlineStr">
+      <c r="C160" s="108" t="inlineStr">
         <is>
           <t>Brandon</t>
         </is>
@@ -9346,28 +10442,32 @@
       <c r="D160" s="65" t="n"/>
       <c r="E160" s="66" t="n"/>
       <c r="F160" s="66" t="n"/>
-      <c r="G160" s="107" t="inlineStr">
+      <c r="G160" s="109" t="inlineStr">
         <is>
           <t>740-441-7043</t>
         </is>
       </c>
-      <c r="H160" s="108" t="inlineStr">
+      <c r="H160" s="110" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="I160" s="65" t="n"/>
-      <c r="J160" s="108" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="K160" s="108" t="inlineStr">
+      <c r="I160" s="107" t="inlineStr">
+        <is>
+          <t>Union</t>
+        </is>
+      </c>
+      <c r="J160" s="110" t="inlineStr">
+        <is>
+          <t>Pick-up</t>
+        </is>
+      </c>
+      <c r="K160" s="110" t="inlineStr">
         <is>
           <t>PU-3052</t>
         </is>
       </c>
-      <c r="L160" s="109" t="inlineStr">
+      <c r="L160" s="111" t="inlineStr">
         <is>
           <t>M</t>
         </is>
